--- a/MatProg/Lab3/Lab3.xlsx
+++ b/MatProg/Lab3/Lab3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397803A-A7BB-4B9A-9CC1-2AC4FB95C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B581DBD-4F4C-428A-91EF-BFD288FEDD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Условие</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>базисная переменная</t>
   </si>
+  <si>
+    <t>Суммарная стоимость поставок</t>
+  </si>
 </sst>
 </file>
 
@@ -349,67 +352,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -424,6 +378,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,8 +481,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1695450" cy="585788"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -549,6 +524,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -703,7 +679,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -767,8 +743,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="510011"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -810,6 +786,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -910,19 +887,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1,4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -942,7 +907,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1042,8 +1007,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="474297"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1085,6 +1050,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1185,19 +1151,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1,4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -1217,7 +1171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1926,8 +1880,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -1969,6 +1923,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1998,7 +1953,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -2080,8 +2035,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -2123,6 +2078,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2152,7 +2108,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -2289,8 +2245,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="65" name="TextBox 64">
@@ -2332,6 +2288,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2361,7 +2318,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="65" name="TextBox 64">
@@ -2443,8 +2400,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="TextBox 65">
@@ -2486,6 +2443,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2515,7 +2473,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="TextBox 65">
@@ -2591,16 +2549,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2615,7 +2573,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2286000" y="7162800"/>
+          <a:off x="971550" y="9953625"/>
           <a:ext cx="276225" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2644,16 +2602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2667,9 +2625,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="7658100"/>
-          <a:ext cx="314325" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="1114425" y="10334625"/>
+          <a:ext cx="1419225" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2697,16 +2655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2721,8 +2679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3009900" y="10096500"/>
-          <a:ext cx="0" cy="466725"/>
+          <a:off x="1724025" y="9925050"/>
+          <a:ext cx="9525" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2751,9 +2709,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2771,7 +2729,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2771775" y="7062787"/>
+              <a:off x="2486025" y="10263187"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2799,6 +2757,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2842,7 +2801,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2771775" y="7062787"/>
+              <a:off x="2486025" y="10263187"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2870,6 +2829,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -2904,10 +2864,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2925,7 +2885,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1905000" y="7062787"/>
+              <a:off x="1238250" y="9882187"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2953,6 +2913,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2996,7 +2957,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1905000" y="7062787"/>
+              <a:off x="1238250" y="9882187"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3024,6 +2985,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -3056,72 +3018,17 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="TextBox 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1134CF7-5F6B-471F-B605-CA8A0C2D8040}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1933575" y="7586662"/>
-          <a:ext cx="65" cy="172227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3137,8 +3044,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="10125075"/>
-          <a:ext cx="0" cy="352425"/>
+          <a:off x="638175" y="9991725"/>
+          <a:ext cx="0" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3166,10 +3073,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3187,7 +3094,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2781300" y="10444162"/>
+              <a:off x="638175" y="10272712"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3215,6 +3122,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3258,7 +3166,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2781300" y="10444162"/>
+              <a:off x="638175" y="10272712"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3286,6 +3194,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -3320,10 +3229,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3341,7 +3250,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1828800" y="10463212"/>
+              <a:off x="638175" y="9872662"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3369,6 +3278,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3412,7 +3322,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1828800" y="10463212"/>
+              <a:off x="638175" y="9872662"/>
               <a:ext cx="172227" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3440,6 +3350,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -3631,6 +3542,2155 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Прямая со стрелкой 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD127FE8-A764-3E1F-4BF9-CF4EE7D679B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="10401300"/>
+          <a:ext cx="0" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DBCD58-6F8B-3630-146F-739F08156FA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1219200" y="10644187"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DBCD58-6F8B-3630-146F-739F08156FA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1219200" y="10644187"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0DC1E7-75B5-5F9F-CA45-82C99F4D90AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2828925" y="10644187"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0DC1E7-75B5-5F9F-CA45-82C99F4D90AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2828925" y="10644187"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F1E923-31E7-7902-E062-B89A0E78EF5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1771650" y="10706100"/>
+          <a:ext cx="828675" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A890178B-179E-4B12-95A8-D18879F6882C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="10444162"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084CEB2F-D874-4EBA-A7CB-B0216B785885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="13301662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE51F8C6-FCF7-43A6-AC88-017C8FFC824F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A2605F-74EA-4A3C-ABCF-FF146E689862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="TextBox 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BF4AEE-7428-F571-AF8C-EDFD49086428}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1857375" y="12730162"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="TextBox 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BF4AEE-7428-F571-AF8C-EDFD49086428}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1857375" y="12730162"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="TextBox 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD1BD56-A9E0-387B-97E3-49A7E9DD4FBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1257300" y="13501687"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="TextBox 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD1BD56-A9E0-387B-97E3-49A7E9DD4FBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1257300" y="13501687"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="TextBox 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEDACF2-2602-BB5A-A530-A00F2AAC9DDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1276350" y="12711112"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="TextBox 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEDACF2-2602-BB5A-A530-A00F2AAC9DDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1276350" y="12711112"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="TextBox 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E578E361-84A6-C7D9-0383-9095E78BDFA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1847850" y="13463587"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="TextBox 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E578E361-84A6-C7D9-0383-9095E78BDFA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1847850" y="13463587"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Прямая со стрелкой 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F182246-6319-6CE8-04C7-A811162DBA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1685925" y="12811125"/>
+          <a:ext cx="180975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Прямая со стрелкой 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA1C2F8-88E9-36EC-ADFD-79787F89335B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1266825" y="12797226"/>
+          <a:ext cx="9525" cy="766374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Прямая со стрелкой 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E290EC-F825-CE1E-B02A-B3A38CBE28C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2362200" y="12830175"/>
+          <a:ext cx="0" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Прямая со стрелкой 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F7068C-E18B-321C-DF55-9E3254E346DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="13601700"/>
+          <a:ext cx="238125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="TextBox 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8C026D-FD4D-48D5-8AB4-63CDC7D24824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="13301662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="TextBox 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB7EEC2-4E26-4992-ADD0-C0BB0C238201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="TextBox 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DC1DE3-BBB0-4632-BA62-A0E8A0C183E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="TextBox 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3ED2DA-9EFD-4D7F-B715-3F353C9D5F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="TextBox 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BB9F85-9B35-4EAC-875F-99367051962D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TextBox 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A294C3-73B8-43A1-81EE-D30F4EFD537C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="TextBox 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C98DC6-4BCE-4454-9A0F-49D8E533A0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="TextBox 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4E59F4-54FD-4E09-AEB4-BA4384F449B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="TextBox 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52223607-08B0-4C85-839F-6966CD9B5CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="TextBox 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C6BD20-1712-4C5B-98B3-B46A5BE766C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="TextBox 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3221E874-1FC4-4CBF-B60F-8E36897BCEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="TextBox 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791A5B0A-3CFB-4761-B7A9-6F5A50BA157A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15587662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3897,10 +5957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,1164 +5970,1672 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>500</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="6" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1500</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="2">
         <v>1000</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="2">
         <v>1000</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="2">
         <v>2000</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="2">
         <v>2000</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="2">
         <v>500</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="2">
         <v>1000</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="2">
         <v>1500</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="2">
         <v>2000</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="2">
         <v>1000</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="2">
         <v>1000</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="2">
         <v>1000</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="2">
         <v>2000</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="2">
         <v>2000</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="14">
         <v>500</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="2">
         <v>6</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="5"/>
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="21">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4">
         <f>B31-(B$41+$F31)</f>
         <v>4</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="4">
         <f>C31-(C$41+$F31)</f>
         <v>5</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="4">
         <f>E31-(E$41+$F31)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="H32" s="23"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="6"/>
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="11">
         <v>1000</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="2">
         <v>2</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="10"/>
+      <c r="I33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
+      <c r="J33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21">
-        <f>B33-(B$41+$F33)</f>
+      <c r="A34" s="11"/>
+      <c r="B34" s="3">
         <v>0</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="3">
         <v>1000</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="4">
         <f>D33-(D$41+$F33)</f>
         <v>-1</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="4">
         <f>E33-(E$41+$F33)</f>
         <v>-4</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="11">
         <v>1500</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="8">
         <v>4</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="11">
         <v>1</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="11">
+      <c r="A36" s="11"/>
+      <c r="B36" s="3">
         <v>1000</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="4">
         <f>C35-(C$41+$F35)</f>
         <v>3</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="3">
         <v>500</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="9">
         <f>E35-(E$41+$F35)</f>
         <v>-4</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="11">
         <v>2000</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>9</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="21">
+      <c r="A38" s="11"/>
+      <c r="B38" s="4">
         <f>B37-(B$41+$F37)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="4">
         <f>C37-(C$41+$F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="3">
         <v>1000</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="3">
         <v>1000</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="11">
         <v>1000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="11">
         <v>-7</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="21">
+      <c r="A40" s="11"/>
+      <c r="B40" s="4">
         <f>B39-(B$41+$F39)</f>
         <v>6</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="4">
         <f>C39-(C$41+$F39)</f>
         <v>6</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="4">
         <f>D39-(D$41+$F39)</f>
         <v>4</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>3</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>7</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>500</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41">
+        <f>D31*D32+B33*B34+C33*C34+B35*B36+D35*D36+D37*D38+E37*E38</f>
+        <v>20500</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="2">
         <v>1000</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="2">
         <v>1000</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="2">
         <v>2000</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="14">
         <v>500</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="2">
         <v>6</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="2">
         <v>3</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="2">
         <v>8</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="21">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4">
         <f>B44-(B$54+$F44)</f>
-        <v>3</v>
-      </c>
-      <c r="C45" s="21">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
         <f>C44-(C$54+$F44)</f>
-        <v>5</v>
-      </c>
-      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="4">
         <f>E44-(E$54+$F44)</f>
-        <v>4</v>
-      </c>
-      <c r="F45" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="11">
         <v>1000</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
+      <c r="F46" s="11">
+        <v>-4</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21">
-        <f>B46-(B$54+$F46)</f>
-        <v>-1</v>
-      </c>
-      <c r="C47" s="10">
+      <c r="A47" s="11"/>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
         <v>1000</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="4">
         <f>D46-(D$54+$F46)</f>
-        <v>2</v>
-      </c>
-      <c r="E47" s="21">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4">
         <f>E46-(E$54+$F46)</f>
-        <v>-1</v>
-      </c>
-      <c r="F47" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="11">
         <v>1500</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="2">
         <v>2</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="2">
         <v>5</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="2">
         <v>4</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
+      <c r="F48" s="11">
+        <v>-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="11">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="3">
         <v>1000</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="4">
         <f>C48-(C$54+$F48)</f>
-        <v>4</v>
-      </c>
-      <c r="D49" s="21">
+        <v>3</v>
+      </c>
+      <c r="D49" s="4">
         <f>D48-(D$54+$F48)</f>
         <v>4</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="3">
         <f>0+$I$41</f>
         <v>500</v>
       </c>
-      <c r="F49" s="19"/>
+      <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>2000</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>5</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>9</v>
       </c>
-      <c r="F50" s="6">
-        <v>5</v>
+      <c r="F50" s="11">
+        <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="21">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="4">
         <f>B50-(B$54+$F50)</f>
         <v>-1</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="9">
         <f>C50-(C$54+$F50)</f>
-        <v>-3</v>
-      </c>
-      <c r="D51" s="10">
+        <v>-4</v>
+      </c>
+      <c r="D51" s="3">
         <f>D38+$I$41</f>
         <v>1500</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="3">
         <f>E38-$I$41</f>
         <v>500</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>1000</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="6">
-        <v>-4</v>
+      <c r="F52" s="11">
+        <v>-7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="21">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="4">
         <f>B52-(B$54+$F52)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="4">
         <f>C52-(C$54+$F52)</f>
-        <v>3</v>
-      </c>
-      <c r="D53" s="21">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4">
         <f>D52-(D$54+$F52)</f>
         <v>4</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="2">
+        <v>500</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54">
+        <f>D44*D45+C46*C47+B46*B47+B48*B49+E48*E49+D50*D51+E50*E51</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>500</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="4">
+        <f>B57-(B$67+$F57)</f>
+        <v>4</v>
+      </c>
+      <c r="C58" s="4">
+        <f>C57-(C$67+$F57)</f>
+        <v>5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="4">
+        <f>E57-(E$67+$F57)</f>
+        <v>5</v>
+      </c>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
         <v>2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="E59" s="2">
+        <v>3</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="3">
+        <f>B47+$I$54</f>
+        <v>500</v>
+      </c>
+      <c r="C60" s="3">
+        <f>C47-$I$54</f>
+        <v>500</v>
+      </c>
+      <c r="D60" s="9">
+        <f>D59-(D$67+$F59)</f>
+        <v>-1</v>
+      </c>
+      <c r="E60" s="4">
+        <f>E59-(E$67+$F59)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>1500</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>4</v>
+      </c>
+      <c r="F61" s="11">
         <v>1</v>
       </c>
-      <c r="D54" s="3">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="3">
+        <f>B49-$I$54</f>
+        <v>500</v>
+      </c>
+      <c r="C62" s="4">
+        <f>C61-(C$67+$F61)</f>
+        <v>3</v>
+      </c>
+      <c r="D62" s="4">
+        <f>D61-(D$67+$F61)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E62" s="3">
+        <f>E49+$I$54</f>
+        <v>1000</v>
+      </c>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B63" s="2">
+        <v>6</v>
+      </c>
+      <c r="C63" s="17">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9</v>
+      </c>
+      <c r="F63" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="4">
+        <f>B63-(B$67+$F63)</f>
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>500</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E64" s="4">
+        <f>E63-(E$67+$F63)</f>
         <v>4</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="4">
+        <f>B65-(B$67+$F65)</f>
+        <v>2</v>
+      </c>
+      <c r="C66" s="4">
+        <f>C65-(C$67+$F65)</f>
+        <v>2</v>
+      </c>
+      <c r="D66" s="4">
+        <f>D65-(D$67+$F65)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="2">
+        <v>500</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67">
+        <f>D57*D58+C59*C60+B59*B60+B61*B62+E61*E62+C63*C64+D63*D64</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>500</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="4">
+        <f>B70-(B$80+$F70)</f>
+        <v>3</v>
+      </c>
+      <c r="C71" s="4">
+        <f>C70-(C$80+$F70)</f>
+        <v>5</v>
+      </c>
+      <c r="D71" s="3">
+        <v>500</v>
+      </c>
+      <c r="E71" s="4">
+        <f>E70-(E$80+$F70)</f>
+        <v>4</v>
+      </c>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="17">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="3">
+        <v>500</v>
+      </c>
+      <c r="C73" s="4">
+        <f>C72-(C$80+$F72)</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>500</v>
+      </c>
+      <c r="E73" s="4">
+        <f>E72-(E$80+$F72)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>1500</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2">
+        <v>4</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="3">
+        <v>500</v>
+      </c>
+      <c r="C75" s="4">
+        <f>C74-(C$80+$F74)</f>
+        <v>4</v>
+      </c>
+      <c r="D75" s="4">
+        <f>D74-(D$80+$F74)</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B76" s="2">
+        <v>6</v>
+      </c>
+      <c r="C76" s="17">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2">
+        <v>9</v>
+      </c>
+      <c r="F76" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="4">
+        <f>B76-(B$80+$F76)</f>
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
+        <f>C64+$I$67</f>
+        <v>1000</v>
+      </c>
+      <c r="D77" s="3">
+        <f>D64-$I$67</f>
+        <v>1000</v>
+      </c>
+      <c r="E77" s="4">
+        <f>E76-(E$80+$F76)</f>
+        <v>3</v>
+      </c>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="4">
+        <f>B78-(B$80+$F78)</f>
+        <v>2</v>
+      </c>
+      <c r="C79" s="4">
+        <f>C78-(C$80+$F78)</f>
+        <v>3</v>
+      </c>
+      <c r="D79" s="4">
+        <f>D78-(D$80+$F78)</f>
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80">
+        <f>D70*D71+D72*D73+B72*B73+B74*B75+E74*E75+C76*C77+D76*D77</f>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="59">
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="G16:I19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="M13:W28"/>
+    <mergeCell ref="M30:W36"/>
+    <mergeCell ref="A22:K28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="A52:A53"/>
@@ -5080,29 +7648,6 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="M13:W28"/>
-    <mergeCell ref="M30:W36"/>
-    <mergeCell ref="A22:K28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G16:I19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J4:L6"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="J2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/MatProg/Lab3/Lab3.xlsx
+++ b/MatProg/Lab3/Lab3.xlsx
@@ -8,14 +8,97 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B581DBD-4F4C-428A-91EF-BFD288FEDD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0074547-E025-472C-952F-3656ADD6758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Решение без ограничений" sheetId="1" r:id="rId1"/>
     <sheet name="Решение с ограничениями" sheetId="2" r:id="rId2"/>
+    <sheet name="Программное решение(!огр)" sheetId="3" r:id="rId3"/>
+    <sheet name="Программное решение(огр)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$15:$D$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Программное решение(!огр)'!$E$10:$E$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$15:$D$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Программное решение(огр)'!$D$13</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Программное решение(огр)'!$E$10:$E$14</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Программное решение(!огр)'!$E$15</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Программное решение(огр)'!$E$15</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Программное решение(!огр)'!$B$2:$E$2</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">500</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$3:$A$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Программное решение(огр)'!$B$2:$E$2</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">1000</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$3:$A$7</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>Условие</t>
   </si>
@@ -228,17 +311,200 @@
   <si>
     <t>Суммарная стоимость поставок</t>
   </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Модифицированная с учетом ограничений таблица</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(500)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>После решения задачи увеличим x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на 1000</t>
+    </r>
+  </si>
+  <si>
+    <t>Окончательное решение</t>
+  </si>
+  <si>
+    <t>После решения задачи величины грузов к потребителю b1 увеличим на величины грузов к потребителю b5</t>
+  </si>
+  <si>
+    <t>Суммарная стоимость</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,8 +544,52 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +612,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -349,10 +664,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,28 +676,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -396,12 +709,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2714,8 +3047,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="71" name="TextBox 70">
@@ -2787,7 +3120,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="71" name="TextBox 70">
@@ -2870,8 +3203,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="TextBox 71">
@@ -2943,7 +3276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="TextBox 71">
@@ -3079,8 +3412,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77">
@@ -3152,7 +3485,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77">
@@ -3235,8 +3568,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78">
@@ -3308,7 +3641,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78">
@@ -3603,8 +3936,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -3676,7 +4009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -3759,8 +4092,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -3832,7 +4165,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -4119,7 +4452,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4175,7 +4507,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4190,8 +4521,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -4263,7 +4594,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -4346,8 +4677,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="83" name="TextBox 82">
@@ -4419,7 +4750,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="83" name="TextBox 82">
@@ -4502,8 +4833,8 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -4575,7 +4906,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -4658,8 +4989,8 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="85" name="TextBox 84">
@@ -4731,7 +5062,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="85" name="TextBox 84">
@@ -5124,7 +5455,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5180,7 +5510,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5236,7 +5565,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5292,7 +5620,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5348,7 +5675,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5404,7 +5730,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5460,7 +5785,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5516,7 +5840,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5572,7 +5895,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5628,7 +5950,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5684,13 +6005,2899 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695450" cy="585788"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AFCD11-16C5-4B2F-B266-DF802DC5762C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3752850" y="233362"/>
+              <a:ext cx="1695450" cy="585788"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=</m:t>
+                            </m:r>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑐𝑖𝑗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥𝑖𝑗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>→</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚𝑖𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AFCD11-16C5-4B2F-B266-DF802DC5762C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3752850" y="233362"/>
+              <a:ext cx="1695450" cy="585788"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑧= ∑_(𝑖=1)^4▒〖 ∑_(𝑗=1)^4▒〖𝑐𝑖𝑗∗𝑥𝑖𝑗→𝑚𝑖𝑛〗〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409701" cy="510011"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1A9FE4-6AA7-4BF5-9B85-F9C822F206F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867149" y="785812"/>
+              <a:ext cx="1409701" cy="510011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑖𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1,4</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1A9FE4-6AA7-4BF5-9B85-F9C822F206F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867149" y="785812"/>
+              <a:ext cx="1409701" cy="510011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^4▒〖𝑥𝑖𝑗=𝑎𝑖, 𝑖= (1,4) ̅  〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409701" cy="474297"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EECFD9-4C28-4993-ADE1-763CE28232A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3857624" y="1357312"/>
+              <a:ext cx="1409701" cy="474297"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑖𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1,4</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EECFD9-4C28-4993-ADE1-763CE28232A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3857624" y="1357312"/>
+              <a:ext cx="1409701" cy="474297"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^4▒〖𝑥𝑖𝑗=𝑏𝑗,𝑗= (1,4) ̅  〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="TextBox 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F35A63-3594-4221-80D4-66719032244B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1847850" y="5543550"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="TextBox 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F35A63-3594-4221-80D4-66719032244B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1847850" y="5543550"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DEF75C-90FE-4C1C-B387-F68EDDE58A74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="5905500"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DEF75C-90FE-4C1C-B387-F68EDDE58A74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1828800" y="5905500"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Прямая со стрелкой 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A64790A-8434-01C2-90E2-A1EEA1B05F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1104900" y="3733800"/>
+          <a:ext cx="209550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Прямая со стрелкой 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D107353D-49C5-8DAF-C426-F50A72666F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="3781425"/>
+          <a:ext cx="0" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Прямая со стрелкой 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EB8BFB-5D0D-CD3E-E24E-7ECEC5B41DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1200150" y="3981450"/>
+          <a:ext cx="1933575" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Прямая со стрелкой 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736B8C92-B5A0-99B1-3AB4-AC61858B2AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2352675" y="3543300"/>
+          <a:ext cx="752475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Прямая со стрелкой 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C204BA08-2B01-C98D-CB2A-61E3E07C9C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="3543300"/>
+          <a:ext cx="9525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Прямая со стрелкой 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA37FAA-6B08-3EBE-9151-EFD613DAB9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="3962400"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Прямая со стрелкой 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B13D54F-01E3-249F-A53D-E5748739F939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="4162425"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Прямая со стрелкой 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61219B3-968A-DF5E-F5BA-8DD1132552DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="4314825"/>
+          <a:ext cx="190500" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="TextBox 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BD81B0-5FB6-3900-0D96-D496A0B3AA82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1019175" y="5895975"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="TextBox 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BD81B0-5FB6-3900-0D96-D496A0B3AA82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1019175" y="5895975"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="TextBox 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA6D921-F478-3770-DA3F-16593EBB6572}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1009650" y="5553075"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="TextBox 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA6D921-F478-3770-DA3F-16593EBB6572}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1009650" y="5553075"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Прямая со стрелкой 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B047542C-C5B0-59CE-2E2F-4E9DAE452840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="5676900"/>
+          <a:ext cx="0" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>86114</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Прямая со стрелкой 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B22E55-9528-D4C4-3E59-AD086DFB3158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1171575" y="6076950"/>
+          <a:ext cx="743339" cy="777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Прямая со стрелкой 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C8A263-DA24-BFFE-D875-0EF12DD251D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="771525" y="5600700"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>486164</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>105164</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Прямая со стрелкой 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A8C19B-946E-C253-CEDB-8A5E18603CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="0"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1095764" y="5543550"/>
+          <a:ext cx="838200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="132" name="TextBox 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB98A6C-8573-E169-2454-2EFD888A55A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1228725" y="9163050"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="132" name="TextBox 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB98A6C-8573-E169-2454-2EFD888A55A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1228725" y="9163050"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="133" name="TextBox 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F652D21-9D63-B4C0-8355-0F1E6C3A1B96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1209675" y="8382000"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="133" name="TextBox 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F652D21-9D63-B4C0-8355-0F1E6C3A1B96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1209675" y="8382000"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="134" name="TextBox 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22937C3C-A680-20AA-A6E0-A73543F4C4F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2238375" y="8391525"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊕</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="134" name="TextBox 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22937C3C-A680-20AA-A6E0-A73543F4C4F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2238375" y="8391525"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172227" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="135" name="TextBox 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA9296D-8166-8510-F3BD-F3A27202A142}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2257425" y="9163050"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>⊝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="135" name="TextBox 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA9296D-8166-8510-F3BD-F3A27202A142}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2257425" y="9163050"/>
+              <a:ext cx="172227" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"⊝</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Прямая со стрелкой 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C20713-2B27-2AD5-583D-32F0023EB43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1743075" y="8467725"/>
+          <a:ext cx="9525" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Прямая со стрелкой 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23CEB4C-3B88-4F3E-6BB0-5E3F272C95AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="8439150"/>
+          <a:ext cx="200025" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Прямая со стрелкой 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053E6684-F372-611B-0E68-2D499A2C9D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1914525" y="8543925"/>
+          <a:ext cx="19050" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Прямая со стрелкой 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEC0EAE-32A3-3E66-D580-12FCF9FBF7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1733550" y="9305925"/>
+          <a:ext cx="142875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5959,8 +9166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,18 +9177,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5999,14 +9206,14 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -6024,12 +9231,12 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -6047,9 +9254,9 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="11" t="s">
         <v>4</v>
       </c>
@@ -6072,9 +9279,9 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -6095,47 +9302,47 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6153,22 +9360,22 @@
       <c r="E13" s="2">
         <v>2000</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -6186,20 +9393,20 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -6217,17 +9424,17 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -6245,22 +9452,22 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -6278,20 +9485,20 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -6309,230 +9516,230 @@
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -6550,20 +9757,20 @@
       <c r="E30" s="2">
         <v>2000</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>500</v>
       </c>
       <c r="B31" s="2">
@@ -6585,17 +9792,17 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -6619,17 +9826,17 @@
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
@@ -6651,21 +9858,21 @@
         <v>0</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -6684,17 +9891,17 @@
         <v>-4</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -6715,17 +9922,17 @@
       <c r="F35" s="11">
         <v>1</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
     </row>
     <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -6744,17 +9951,17 @@
         <v>-4</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -6831,7 +10038,7 @@
       <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -6855,10 +10062,10 @@
       <c r="I41" s="2">
         <v>500</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="16"/>
+      <c r="K41" s="15"/>
       <c r="L41">
         <f>D31*D32+B33*B34+C33*C34+B35*B36+D35*D36+D37*D38+E37*E38</f>
         <v>20500</v>
@@ -6882,7 +10089,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>500</v>
       </c>
       <c r="B44" s="2">
@@ -7074,7 +10281,7 @@
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="12"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
@@ -7098,10 +10305,10 @@
       <c r="I54" s="2">
         <v>500</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="16"/>
+      <c r="K54" s="15"/>
       <c r="L54">
         <f>D44*D45+C46*C47+B46*B47+B48*B49+E48*E49+D50*D51+E50*E51</f>
         <v>18500</v>
@@ -7125,7 +10332,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>500</v>
       </c>
       <c r="B57" s="2">
@@ -7250,7 +10457,7 @@
       <c r="B63" s="2">
         <v>6</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="2">
         <v>3</v>
       </c>
       <c r="D63" s="2">
@@ -7318,7 +10525,7 @@
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="12"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
@@ -7342,10 +10549,10 @@
       <c r="I67" s="2">
         <v>500</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="16"/>
+      <c r="K67" s="15"/>
       <c r="L67">
         <f>D57*D58+C59*C60+B59*B60+B61*B62+E61*E62+C63*C64+D63*D64</f>
         <v>16500</v>
@@ -7369,7 +10576,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="13">
         <v>500</v>
       </c>
       <c r="B70" s="2">
@@ -7417,7 +10624,7 @@
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="2">
         <v>2</v>
       </c>
       <c r="E72" s="2">
@@ -7490,7 +10697,7 @@
       <c r="B76" s="2">
         <v>6</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="2">
         <v>3</v>
       </c>
       <c r="D76" s="2">
@@ -7560,7 +10767,7 @@
       <c r="E79" s="3">
         <v>1000</v>
       </c>
-      <c r="F79" s="12"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
@@ -7578,10 +10785,10 @@
       <c r="F80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="16"/>
+      <c r="I80" s="15"/>
       <c r="J80">
         <f>D70*D71+D72*D73+B72*B73+B74*B75+E74*E75+C76*C77+D76*D77</f>
         <v>16000</v>
@@ -7619,6 +10826,14 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="G13:I14"/>
     <mergeCell ref="G16:I19"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I3"/>
@@ -7633,21 +10848,13 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F52:F53"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7656,12 +10863,1970 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522AC293-CFC7-431F-9BA5-B624D71F0A90}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>500</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19">
+        <v>500</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="19">
+        <v>500</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>500</v>
+      </c>
+      <c r="B17" s="19">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19">
+        <v>8</v>
+      </c>
+      <c r="F17" s="19">
+        <v>5</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>1500</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="19">
+        <v>6</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="19">
+        <v>9</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="19">
+        <v>500</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>500</v>
+      </c>
+      <c r="B24" s="19">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19">
+        <v>6</v>
+      </c>
+      <c r="D24" s="19">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19">
+        <v>8</v>
+      </c>
+      <c r="F24" s="19">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4">
+        <f>B24-(B$34+$G24)</f>
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C24-(C$34+$G24)</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>500</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E24-(E$34+$G24)</f>
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <f>F24-(F$34+$G24)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>3</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="4">
+        <f>D26-(D$34+$G26)</f>
+        <v>-1</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E26-(E$34+$G26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>1500</v>
+      </c>
+      <c r="B28" s="19">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3">
+        <v>500</v>
+      </c>
+      <c r="C29" s="4">
+        <f>C28-(C$34+$G28)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>500</v>
+      </c>
+      <c r="E29" s="4">
+        <f>E28-(E$34+$G28)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>500</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="19">
+        <v>6</v>
+      </c>
+      <c r="C30" s="19">
+        <v>3</v>
+      </c>
+      <c r="D30" s="19">
+        <v>5</v>
+      </c>
+      <c r="E30" s="19">
+        <v>9</v>
+      </c>
+      <c r="F30" s="19">
+        <v>6</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4">
+        <f>B30-(B$34+$G30)</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <f>C30-(C$34+$G30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="4">
+        <f>E30-(E$34+$G30)</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
+        <f>F30-(F$34+$G30)</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4">
+        <f>B32-(B$34+$G32)</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C32-(C$34+$G32)</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="4">
+        <f>F32-(F$34+$G32)</f>
+        <v>2</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="19">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="2">
+        <f>D24*D25+C26*C27+B26*B27+B28*B29+D28*D29+F28*F29+D30*D31</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="19">
+        <v>500</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>500</v>
+      </c>
+      <c r="B37" s="19">
+        <v>5</v>
+      </c>
+      <c r="C37" s="19">
+        <v>6</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3</v>
+      </c>
+      <c r="E37" s="19">
+        <v>8</v>
+      </c>
+      <c r="F37" s="19">
+        <v>5</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="4">
+        <f>B37-(B$47+$G37)</f>
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <f>C37-(C$47+$G37)</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>500</v>
+      </c>
+      <c r="E38" s="4">
+        <f>E37-(E$47+$G37)</f>
+        <v>5</v>
+      </c>
+      <c r="F38" s="4">
+        <f>F37-(F$47+$G37)</f>
+        <v>4</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
+        <v>2</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="4">
+        <f>B39-(B$47+$G39)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f>E39-(E$47+$G39)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>1500</v>
+      </c>
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
+      <c r="C41" s="19">
+        <v>5</v>
+      </c>
+      <c r="D41" s="19">
+        <v>4</v>
+      </c>
+      <c r="E41" s="19">
+        <v>4</v>
+      </c>
+      <c r="F41" s="19">
+        <v>2</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="3">
+        <v>500</v>
+      </c>
+      <c r="C42" s="4">
+        <f>C41-(C$47+$G41)</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="4">
+        <f>E41-(E$47+$G41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>500</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B43" s="19">
+        <v>6</v>
+      </c>
+      <c r="C43" s="19">
+        <v>3</v>
+      </c>
+      <c r="D43" s="19">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19">
+        <v>9</v>
+      </c>
+      <c r="F43" s="19">
+        <v>6</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="4">
+        <f>B43-(B$47+$G43)</f>
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
+        <f>C43-(C$47+$G43)</f>
+        <v>-1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="4">
+        <f>E43-(E$47+$G43)</f>
+        <v>4</v>
+      </c>
+      <c r="F44" s="4">
+        <f>F43-(F$47+$G43)</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="19">
+        <v>0</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="4">
+        <f>B45-(B$47+$G45)</f>
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <f>C45-(C$47+$G45)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="4">
+        <f>F45-(F$47+$G45)</f>
+        <v>2</v>
+      </c>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="19">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="2">
+        <f>D37*D38+C39*C40+D39*D40+B41*B42+D41*D42+F41*F42+D43*D44</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="19">
+        <v>500</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>500</v>
+      </c>
+      <c r="B50" s="19">
+        <v>5</v>
+      </c>
+      <c r="C50" s="19">
+        <v>6</v>
+      </c>
+      <c r="D50" s="19">
+        <v>3</v>
+      </c>
+      <c r="E50" s="19">
+        <v>8</v>
+      </c>
+      <c r="F50" s="19">
+        <v>5</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="4">
+        <f>B50-(B$60+$G50)</f>
+        <v>4</v>
+      </c>
+      <c r="C51" s="4">
+        <f>C50-(C$60+$G50)</f>
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>500</v>
+      </c>
+      <c r="E51" s="4">
+        <f>E50-(E$60+$G50)</f>
+        <v>5</v>
+      </c>
+      <c r="F51" s="4">
+        <f>F50-(F$60+$G50)</f>
+        <v>4</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" s="19">
+        <v>2</v>
+      </c>
+      <c r="E52" s="19">
+        <v>3</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="4">
+        <f>B52-(B$60+$G52)</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <f>C52-(C$60+$G52)</f>
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <f>D40+$J$47</f>
+        <v>1000</v>
+      </c>
+      <c r="E53" s="4">
+        <f>E52-(E$60+$G52)</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>1500</v>
+      </c>
+      <c r="B54" s="19">
+        <v>2</v>
+      </c>
+      <c r="C54" s="19">
+        <v>5</v>
+      </c>
+      <c r="D54" s="19">
+        <v>4</v>
+      </c>
+      <c r="E54" s="19">
+        <v>4</v>
+      </c>
+      <c r="F54" s="19">
+        <v>2</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="3">
+        <v>500</v>
+      </c>
+      <c r="C55" s="4">
+        <f>C54-(C$60+$G54)</f>
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>500</v>
+      </c>
+      <c r="E55" s="4">
+        <f>E54-(E$60+$G54)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>500</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B56" s="19">
+        <v>6</v>
+      </c>
+      <c r="C56" s="19">
+        <v>3</v>
+      </c>
+      <c r="D56" s="19">
+        <v>5</v>
+      </c>
+      <c r="E56" s="19">
+        <v>9</v>
+      </c>
+      <c r="F56" s="19">
+        <v>6</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="4">
+        <f>B56-(B$60+$G56)</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <f>0+$J$47</f>
+        <v>1000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f>E56-(E$60+$G56)</f>
+        <v>4</v>
+      </c>
+      <c r="F57" s="4">
+        <f>F56-(F$60+$G56)</f>
+        <v>3</v>
+      </c>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="19">
+        <v>0</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="4">
+        <f>B58-(B$60+$G58)</f>
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
+        <f>C58-(C$60+$G58)</f>
+        <v>2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="4">
+        <f>F58-(F$60+$G58)</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3</v>
+      </c>
+      <c r="E60" s="19">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="2">
+        <f>D50*D51+D52*D53+B54*B55+D54*D55+F54*F55+C56*C57+D56*D57</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C64" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>500</v>
+      </c>
+      <c r="B65" s="19">
+        <v>5</v>
+      </c>
+      <c r="C65" s="19">
+        <v>6</v>
+      </c>
+      <c r="D65" s="19">
+        <v>3</v>
+      </c>
+      <c r="E65" s="19">
+        <v>8</v>
+      </c>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B67" s="19">
+        <v>1</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1</v>
+      </c>
+      <c r="D67" s="19">
+        <v>2</v>
+      </c>
+      <c r="E67" s="19">
+        <v>3</v>
+      </c>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>1500</v>
+      </c>
+      <c r="B69" s="19">
+        <v>2</v>
+      </c>
+      <c r="C69" s="19">
+        <v>5</v>
+      </c>
+      <c r="D69" s="19">
+        <v>4</v>
+      </c>
+      <c r="E69" s="19">
+        <v>4</v>
+      </c>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="3">
+        <v>500</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B71" s="19">
+        <v>6</v>
+      </c>
+      <c r="C71" s="19">
+        <v>3</v>
+      </c>
+      <c r="D71" s="19">
+        <v>5</v>
+      </c>
+      <c r="E71" s="19">
+        <v>9</v>
+      </c>
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B73" s="19">
+        <v>0</v>
+      </c>
+      <c r="C73" s="19">
+        <v>0</v>
+      </c>
+      <c r="D73" s="19">
+        <v>0</v>
+      </c>
+      <c r="E73" s="19">
+        <v>0</v>
+      </c>
+      <c r="F73" s="22"/>
+      <c r="G73" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="11">
+        <f>D65*D66+D67*D68+B69*B70+D69*D70+C71*C72+E71*E72</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A62:E63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:K21"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="J4:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE1ED91-AEC4-48A3-8F88-E0467CB74905}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>500</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUM(A10:D10)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>470</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E14" si="0">SUM(A11:D11)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>970</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>530</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>SUM(A10:A14)</f>
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:D15" si="1">SUM(B10:B14)</f>
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="17">
+        <f>SUMPRODUCT(B3:E7,A10:D14)</f>
+        <v>16000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E5B5C-89B0-4CDC-B622-D3F53314EC86}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>500</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUM(A10:D10)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E14" si="0">SUM(A11:D11)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>158</v>
+      </c>
+      <c r="D12" s="2">
+        <v>342</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>342</v>
+      </c>
+      <c r="D14" s="2">
+        <v>658</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>SUM(A10:A14)</f>
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:D15" si="1">SUM(B10:B14)</f>
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="17">
+        <f>SUMPRODUCT(B3:E7,A10:D14)</f>
+        <v>19500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MatProg/Lab3/Lab3.xlsx
+++ b/MatProg/Lab3/Lab3.xlsx
@@ -8,94 +8,134 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0074547-E025-472C-952F-3656ADD6758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FB9864-C08E-4F94-A84E-6774C94F7C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Решение без ограничений" sheetId="1" r:id="rId1"/>
     <sheet name="Решение с ограничениями" sheetId="2" r:id="rId2"/>
     <sheet name="Программное решение(!огр)" sheetId="3" r:id="rId3"/>
     <sheet name="Программное решение(огр)" sheetId="4" r:id="rId4"/>
+    <sheet name="Двухэтапная тр. задача" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$T$13</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$T$13</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$T$13</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$14:$T$14</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$15:$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$U$11:$U$13</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Программное решение(!огр)'!$E$10:$E$14</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$15:$D$15</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Программное решение(огр)'!$D$13</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Программное решение(огр)'!$E$10:$E$14</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$U$14</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Программное решение(!огр)'!$E$15</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Программное решение(огр)'!$E$15</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"целое"</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">"целое"</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$R$6:$U$6</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Программное решение(!огр)'!$B$2:$E$2</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">500</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$V$3:$V$5</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$3:$A$7</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Программное решение(огр)'!$B$2:$E$2</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">1000</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$3:$A$7</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
@@ -109,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>Условие</t>
   </si>
@@ -486,12 +526,72 @@
   <si>
     <t>Суммарная стоимость</t>
   </si>
+  <si>
+    <t>Поставщики-промежуточные базы(тарифы)</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>А2</t>
+  </si>
+  <si>
+    <t>А3</t>
+  </si>
+  <si>
+    <t>А4</t>
+  </si>
+  <si>
+    <t>Д1</t>
+  </si>
+  <si>
+    <t>Д2</t>
+  </si>
+  <si>
+    <t>Д3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Базы-потребители(тарифы)</t>
+  </si>
+  <si>
+    <t>Матрица тарифов</t>
+  </si>
+  <si>
+    <t>Двухэтапная транспортная задача</t>
+  </si>
+  <si>
+    <t>Раздельное прикрепление потребителей к базам и баз к поставщикам</t>
+  </si>
+  <si>
+    <t>А5</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Решение(от баз к поставщикам)</t>
+  </si>
+  <si>
+    <t>Решение(от потребителей к базам)</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +688,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -668,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,11 +800,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,28 +832,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6024,8 +6137,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1695450" cy="585788"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6222,7 +6335,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6287,8 +6400,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="510011"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -6451,7 +6564,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -6546,8 +6659,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="474297"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6710,7 +6823,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6805,8 +6918,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -6878,7 +6991,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -6961,8 +7074,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -7034,7 +7147,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -7541,8 +7654,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="TextBox 111">
@@ -7614,7 +7727,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="TextBox 111">
@@ -7697,8 +7810,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="TextBox 112">
@@ -7770,7 +7883,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="TextBox 112">
@@ -8070,8 +8183,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="TextBox 131">
@@ -8143,7 +8256,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="TextBox 131">
@@ -8226,8 +8339,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="TextBox 132">
@@ -8299,7 +8412,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="TextBox 132">
@@ -8382,8 +8495,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="TextBox 133">
@@ -8455,7 +8568,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="TextBox 133">
@@ -8538,8 +8651,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134">
@@ -8611,7 +8724,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134">
@@ -9166,7 +9279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
@@ -9177,18 +9290,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9206,14 +9319,14 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -9231,12 +9344,12 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -9254,14 +9367,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -9279,12 +9392,12 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -9302,47 +9415,47 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -9360,22 +9473,22 @@
       <c r="E13" s="2">
         <v>2000</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -9393,20 +9506,20 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -9424,17 +9537,17 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -9452,22 +9565,22 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -9485,20 +9598,20 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -9516,230 +9629,230 @@
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -9757,20 +9870,20 @@
       <c r="E30" s="2">
         <v>2000</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="20">
         <v>500</v>
       </c>
       <c r="B31" s="2">
@@ -9785,27 +9898,27 @@
       <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="18">
         <v>0</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="4">
         <f>B31-(B$41+$F31)</f>
         <v>4</v>
@@ -9821,25 +9934,25 @@
         <f>E31-(E$41+$F31)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="18"/>
       <c r="H32" s="6"/>
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="18">
         <v>1000</v>
       </c>
       <c r="B33" s="2">
@@ -9854,28 +9967,28 @@
       <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="18">
         <v>0</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
+      <c r="J33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -9890,21 +10003,21 @@
         <f>E33-(E$41+$F33)</f>
         <v>-4</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
+      <c r="F34" s="18"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="18">
         <v>1500</v>
       </c>
       <c r="B35" s="2">
@@ -9919,23 +10032,23 @@
       <c r="E35" s="8">
         <v>4</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="18">
         <v>1</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
     </row>
     <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="3">
         <v>1000</v>
       </c>
@@ -9950,21 +10063,21 @@
         <f>E35-(E$41+$F35)</f>
         <v>-4</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
+      <c r="F36" s="18"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="18">
         <v>2000</v>
       </c>
       <c r="B37" s="2">
@@ -9979,12 +10092,12 @@
       <c r="E37" s="2">
         <v>9</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="4">
         <f>B37-(B$41+$F37)</f>
         <v>3</v>
@@ -9999,10 +10112,10 @@
       <c r="E38" s="3">
         <v>1000</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="18">
         <v>1000</v>
       </c>
       <c r="B39" s="2">
@@ -10017,12 +10130,12 @@
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="18">
         <v>-7</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4">
         <f>B39-(B$41+$F39)</f>
         <v>6</v>
@@ -10038,7 +10151,7 @@
       <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -10062,10 +10175,10 @@
       <c r="I41" s="2">
         <v>500</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="17"/>
       <c r="L41">
         <f>D31*D32+B33*B34+C33*C34+B35*B36+D35*D36+D37*D38+E37*E38</f>
         <v>20500</v>
@@ -10089,7 +10202,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="20">
         <v>500</v>
       </c>
       <c r="B44" s="2">
@@ -10104,12 +10217,12 @@
       <c r="E44" s="2">
         <v>8</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="4">
         <f>B44-(B$54+$F44)</f>
         <v>0</v>
@@ -10125,10 +10238,10 @@
         <f>E44-(E$54+$F44)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="18">
         <v>1000</v>
       </c>
       <c r="B46" s="2">
@@ -10143,12 +10256,12 @@
       <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="18">
         <v>-4</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3">
         <v>0</v>
       </c>
@@ -10163,10 +10276,10 @@
         <f>E46-(E$54+$F46)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="18">
         <v>1500</v>
       </c>
       <c r="B48" s="2">
@@ -10181,12 +10294,12 @@
       <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="18">
         <v>-3</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="3">
         <v>1000</v>
       </c>
@@ -10202,10 +10315,10 @@
         <f>0+$I$41</f>
         <v>500</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="18">
         <v>2000</v>
       </c>
       <c r="B50" s="2">
@@ -10220,12 +10333,12 @@
       <c r="E50" s="2">
         <v>9</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="4">
         <f>B50-(B$54+$F50)</f>
         <v>-1</v>
@@ -10242,10 +10355,10 @@
         <f>E38-$I$41</f>
         <v>500</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="18">
         <v>1000</v>
       </c>
       <c r="B52" s="2">
@@ -10260,12 +10373,12 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="18">
         <v>-7</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="4">
         <f>B52-(B$54+$F52)</f>
         <v>2</v>
@@ -10281,7 +10394,7 @@
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="16"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
@@ -10305,10 +10418,10 @@
       <c r="I54" s="2">
         <v>500</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="J54" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="15"/>
+      <c r="K54" s="17"/>
       <c r="L54">
         <f>D44*D45+C46*C47+B46*B47+B48*B49+E48*E49+D50*D51+E50*E51</f>
         <v>18500</v>
@@ -10332,7 +10445,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="20">
         <v>500</v>
       </c>
       <c r="B57" s="2">
@@ -10347,12 +10460,12 @@
       <c r="E57" s="2">
         <v>8</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="4">
         <f>B57-(B$67+$F57)</f>
         <v>4</v>
@@ -10368,10 +10481,10 @@
         <f>E57-(E$67+$F57)</f>
         <v>5</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="A59" s="18">
         <v>1000</v>
       </c>
       <c r="B59" s="2">
@@ -10386,12 +10499,12 @@
       <c r="E59" s="2">
         <v>3</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="3">
         <f>B47+$I$54</f>
         <v>500</v>
@@ -10408,10 +10521,10 @@
         <f>E59-(E$67+$F59)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="A61" s="18">
         <v>1500</v>
       </c>
       <c r="B61" s="2">
@@ -10426,12 +10539,12 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="3">
         <f>B49-$I$54</f>
         <v>500</v>
@@ -10448,10 +10561,10 @@
         <f>E49+$I$54</f>
         <v>1000</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="A63" s="18">
         <v>2000</v>
       </c>
       <c r="B63" s="2">
@@ -10466,12 +10579,12 @@
       <c r="E63" s="2">
         <v>9</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="4">
         <f>B63-(B$67+$F63)</f>
         <v>3</v>
@@ -10486,10 +10599,10 @@
         <f>E63-(E$67+$F63)</f>
         <v>4</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="A65" s="18">
         <v>1000</v>
       </c>
       <c r="B65" s="2">
@@ -10504,12 +10617,12 @@
       <c r="E65" s="2">
         <v>0</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="18">
         <v>-3</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="4">
         <f>B65-(B$67+$F65)</f>
         <v>2</v>
@@ -10525,7 +10638,7 @@
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="16"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
@@ -10549,10 +10662,10 @@
       <c r="I67" s="2">
         <v>500</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="J67" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="17"/>
       <c r="L67">
         <f>D57*D58+C59*C60+B59*B60+B61*B62+E61*E62+C63*C64+D63*D64</f>
         <v>16500</v>
@@ -10576,7 +10689,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="20">
         <v>500</v>
       </c>
       <c r="B70" s="2">
@@ -10591,12 +10704,12 @@
       <c r="E70" s="2">
         <v>8</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="4">
         <f>B70-(B$80+$F70)</f>
         <v>3</v>
@@ -10612,10 +10725,10 @@
         <f>E70-(E$80+$F70)</f>
         <v>4</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
+      <c r="A72" s="18">
         <v>1000</v>
       </c>
       <c r="B72" s="2">
@@ -10630,12 +10743,12 @@
       <c r="E72" s="2">
         <v>3</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="18">
         <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="3">
         <v>500</v>
       </c>
@@ -10650,10 +10763,10 @@
         <f>E72-(E$80+$F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="11"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="A74" s="18">
         <v>1500</v>
       </c>
       <c r="B74" s="2">
@@ -10668,12 +10781,12 @@
       <c r="E74" s="2">
         <v>4</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="3">
         <v>500</v>
       </c>
@@ -10688,10 +10801,10 @@
       <c r="E75" s="3">
         <v>1000</v>
       </c>
-      <c r="F75" s="11"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+      <c r="A76" s="18">
         <v>2000</v>
       </c>
       <c r="B76" s="2">
@@ -10706,12 +10819,12 @@
       <c r="E76" s="2">
         <v>9</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="4">
         <f>B76-(B$80+$F76)</f>
         <v>2</v>
@@ -10728,10 +10841,10 @@
         <f>E76-(E$80+$F76)</f>
         <v>3</v>
       </c>
-      <c r="F77" s="11"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
+      <c r="A78" s="18">
         <v>1000</v>
       </c>
       <c r="B78" s="2">
@@ -10746,12 +10859,12 @@
       <c r="E78" s="2">
         <v>0</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="18">
         <v>-4</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="4">
         <f>B78-(B$80+$F78)</f>
         <v>2</v>
@@ -10767,7 +10880,7 @@
       <c r="E79" s="3">
         <v>1000</v>
       </c>
-      <c r="F79" s="16"/>
+      <c r="F79" s="19"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
@@ -10785,10 +10898,10 @@
       <c r="F80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="15"/>
+      <c r="I80" s="17"/>
       <c r="J80">
         <f>D70*D71+D72*D73+B72*B73+B74*B75+E74*E75+C76*C77+D76*D77</f>
         <v>16000</v>
@@ -10796,6 +10909,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="M13:W28"/>
+    <mergeCell ref="M30:W36"/>
+    <mergeCell ref="A22:K28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="G16:I19"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="J54:K54"/>
@@ -10812,49 +10968,6 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="J4:L6"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G16:I19"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="M13:W28"/>
-    <mergeCell ref="M30:W36"/>
-    <mergeCell ref="A22:K28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10865,25 +10978,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522AC293-CFC7-431F-9BA5-B624D71F0A90}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10901,14 +11014,14 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -10926,12 +11039,12 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -10949,14 +11062,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -10974,12 +11087,12 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -10997,38 +11110,38 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G10" s="2" t="s">
@@ -11053,217 +11166,217 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="2">
         <v>500</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="2">
         <v>1000</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="2">
         <v>2000</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="2">
         <v>1000</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="2">
         <v>500</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="2">
         <v>500</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="2">
         <v>8</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="2">
         <v>1000</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="2">
         <v>3</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="2">
         <v>1500</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="2">
         <v>1000</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="2">
         <v>9</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1000</v>
       </c>
-      <c r="B21" s="19">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="2">
         <v>500</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="2">
         <v>1000</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="2">
         <v>2000</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="2">
         <v>1000</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="20">
         <v>500</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="2">
         <v>6</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="2">
         <v>8</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4">
         <f>B24-(B$34+$G24)</f>
         <v>4</v>
@@ -11283,33 +11396,33 @@
         <f>F24-(F$34+$G24)</f>
         <v>4</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="18">
         <v>1000</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="13">
         <v>1</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -11324,36 +11437,36 @@
         <f>E26-(E$34+$G26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="18">
         <v>1500</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="3">
         <v>500</v>
       </c>
@@ -11371,33 +11484,33 @@
       <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="18">
         <v>1000</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="2">
         <v>9</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4">
         <f>B30-(B$34+$G30)</f>
         <v>3</v>
@@ -11417,33 +11530,33 @@
         <f>F30-(F$34+$G30)</f>
         <v>3</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="18">
         <v>1000</v>
       </c>
-      <c r="B32" s="19">
-        <v>0</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
         <v>-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="4">
         <f>B32-(B$34+$G32)</f>
         <v>2</v>
@@ -11462,7 +11575,7 @@
         <f>F32-(F$34+$G32)</f>
         <v>2</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -11474,7 +11587,7 @@
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="2">
         <v>3</v>
       </c>
       <c r="F34" s="2">
@@ -11489,10 +11602,10 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="15"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="2">
         <f>D24*D25+C26*C27+B26*B27+B28*B29+D28*D29+F28*F29+D30*D31</f>
         <v>11500</v>
@@ -11502,47 +11615,47 @@
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="2">
         <v>500</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="2">
         <v>1000</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="2">
         <v>2000</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="2">
         <v>1000</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="20">
         <v>500</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="2">
         <v>5</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="2">
         <v>6</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="2">
         <v>3</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="2">
         <v>8</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="2">
         <v>5</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="4">
         <f>B37-(B$47+$G37)</f>
         <v>4</v>
@@ -11562,33 +11675,33 @@
         <f>F37-(F$47+$G37)</f>
         <v>4</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="18">
         <v>1000</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="13">
         <v>1</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="2">
         <v>2</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="18">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4">
         <f>B39-(B$47+$G39)</f>
         <v>1</v>
@@ -11603,36 +11716,36 @@
         <f>E39-(E$47+$G39)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="18">
         <v>1500</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="2">
         <v>2</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="2">
         <v>5</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="2">
         <v>4</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="2">
         <v>4</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="3">
         <v>500</v>
       </c>
@@ -11650,33 +11763,33 @@
       <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="18">
         <v>1000</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="2">
         <v>6</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="2">
         <v>5</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="2">
         <v>9</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="4">
         <f>B43-(B$47+$G43)</f>
         <v>3</v>
@@ -11696,33 +11809,33 @@
         <f>F43-(F$47+$G43)</f>
         <v>3</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="18">
         <v>1000</v>
       </c>
-      <c r="B45" s="19">
-        <v>0</v>
-      </c>
-      <c r="C45" s="19">
-        <v>0</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0</v>
-      </c>
-      <c r="E45" s="19">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="11">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="18">
         <v>-3</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="4">
         <f>B45-(B$47+$G45)</f>
         <v>2</v>
@@ -11741,7 +11854,7 @@
         <f>F45-(F$47+$G45)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="16"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
@@ -11753,7 +11866,7 @@
       <c r="D47" s="2">
         <v>3</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="2">
         <v>3</v>
       </c>
       <c r="F47" s="2">
@@ -11768,10 +11881,10 @@
       <c r="J47" s="2">
         <v>1000</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="15"/>
+      <c r="L47" s="17"/>
       <c r="M47" s="2">
         <f>D37*D38+C39*C40+D39*D40+B41*B42+D41*D42+F41*F42+D43*D44</f>
         <v>11500</v>
@@ -11781,47 +11894,47 @@
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="2">
         <v>500</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="2">
         <v>1000</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="2">
         <v>2000</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="2">
         <v>1000</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="A50" s="20">
         <v>500</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="2">
         <v>6</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="2">
         <v>3</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="2">
         <v>8</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="2">
         <v>5</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="4">
         <f>B50-(B$60+$G50)</f>
         <v>4</v>
@@ -11841,33 +11954,33 @@
         <f>F50-(F$60+$G50)</f>
         <v>4</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="18">
         <v>1000</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="13">
         <v>1</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="2">
         <v>3</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="18">
         <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="4">
         <f>B52-(B$60+$G52)</f>
         <v>1</v>
@@ -11884,36 +11997,36 @@
         <f>E52-(E$60+$G52)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="11"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="18">
         <v>1500</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="2">
         <v>2</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="2">
         <v>5</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="2">
         <v>4</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="2">
         <v>4</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="3">
         <v>500</v>
       </c>
@@ -11931,33 +12044,33 @@
       <c r="F55" s="3">
         <v>500</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="A56" s="18">
         <v>1000</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="2">
         <v>3</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="2">
         <v>5</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="2">
         <v>9</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="2">
         <v>6</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="4">
         <f>B56-(B$60+$G56)</f>
         <v>3</v>
@@ -11977,33 +12090,33 @@
         <f>F56-(F$60+$G56)</f>
         <v>3</v>
       </c>
-      <c r="G57" s="11"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="A58" s="18">
         <v>1000</v>
       </c>
-      <c r="B58" s="19">
-        <v>0</v>
-      </c>
-      <c r="C58" s="19">
-        <v>0</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0</v>
-      </c>
-      <c r="E58" s="19">
-        <v>0</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
         <v>-3</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="4">
         <f>B58-(B$60+$G58)</f>
         <v>2</v>
@@ -12022,7 +12135,7 @@
         <f>F58-(F$60+$G58)</f>
         <v>2</v>
       </c>
-      <c r="G59" s="16"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
@@ -12034,7 +12147,7 @@
       <c r="D60" s="2">
         <v>3</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="2">
         <v>3</v>
       </c>
       <c r="F60" s="2">
@@ -12043,71 +12156,71 @@
       <c r="G60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="15"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="2">
         <f>D50*D51+D52*D53+B54*B55+D54*D55+F54*F55+C56*C57+D56*D57</f>
         <v>10500</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="18"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="2">
         <v>1000</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="2">
         <v>1000</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="2">
         <v>2000</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="2">
         <v>2000</v>
       </c>
-      <c r="F64" s="19"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="20">
         <v>500</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="2">
         <v>6</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="2">
         <v>3</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="2">
         <v>8</v>
       </c>
-      <c r="F65" s="19"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3">
@@ -12117,53 +12230,53 @@
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
+      <c r="A67" s="18">
         <v>1000</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="13">
         <v>1</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="2">
         <v>2</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="2">
         <v>3</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3">
         <v>1000</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="A69" s="18">
         <v>1500</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="2">
         <v>2</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="2">
         <v>5</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="2">
         <v>4</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="2">
         <v>4</v>
       </c>
-      <c r="F69" s="19"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="3">
         <v>1000</v>
       </c>
@@ -12175,25 +12288,25 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="A71" s="18">
         <v>2000</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="2">
         <v>6</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="2">
         <v>3</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="2">
         <v>5</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="2">
         <v>9</v>
       </c>
-      <c r="F71" s="19"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3">
         <v>1000</v>
@@ -12205,33 +12318,33 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+      <c r="A73" s="18">
         <v>1000</v>
       </c>
-      <c r="B73" s="19">
-        <v>0</v>
-      </c>
-      <c r="C73" s="19">
-        <v>0</v>
-      </c>
-      <c r="D73" s="19">
-        <v>0</v>
-      </c>
-      <c r="E73" s="19">
-        <v>0</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="15" t="s">
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="11">
+      <c r="H73" s="17"/>
+      <c r="I73" s="18">
         <f>D65*D66+D67*D68+B69*B70+D69*D70+C71*C72+E71*E72</f>
         <v>19500</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
@@ -12239,19 +12352,41 @@
         <v>1000</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="11"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="A62:E63"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="G58:G59"/>
@@ -12268,35 +12403,13 @@
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12308,19 +12421,19 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E15"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12425,20 +12538,20 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -12547,7 +12660,7 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <f>SUMPRODUCT(B3:E7,A10:D14)</f>
         <v>16000</v>
       </c>
@@ -12566,20 +12679,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E5B5C-89B0-4CDC-B622-D3F53314EC86}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12702,13 +12815,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -12817,7 +12930,7 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <f>SUMPRODUCT(B3:E7,A10:D14)</f>
         <v>19500</v>
       </c>
@@ -12829,4 +12942,1141 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF048BF-D913-43C4-9BC0-F50BDDE95D42}">
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>220</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="2">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2">
+        <v>23</v>
+      </c>
+      <c r="T3" s="2">
+        <v>16</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>280</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="2">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2">
+        <v>10</v>
+      </c>
+      <c r="T4" s="2">
+        <v>24</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
+        <v>250</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2">
+        <v>12</v>
+      </c>
+      <c r="T5" s="2">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>250</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>350</v>
+      </c>
+      <c r="H6" s="2">
+        <v>150</v>
+      </c>
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <v>350</v>
+      </c>
+      <c r="S6" s="2">
+        <v>150</v>
+      </c>
+      <c r="T6" s="2">
+        <v>200</v>
+      </c>
+      <c r="U6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2">
+        <v>280</v>
+      </c>
+      <c r="D7" s="2">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <v>220</v>
+      </c>
+      <c r="N8" s="2">
+        <v>280</v>
+      </c>
+      <c r="O8" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="25">
+        <v>3</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>197</v>
+      </c>
+      <c r="O11" s="25">
+        <f>SUM(L11:N11)</f>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>200</v>
+      </c>
+      <c r="T11" s="25">
+        <v>20</v>
+      </c>
+      <c r="U11" s="25">
+        <f>SUM(Q11:T11)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="25">
+        <v>97</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>53</v>
+      </c>
+      <c r="O12" s="25">
+        <f t="shared" ref="O12:O15" si="0">SUM(L12:N12)</f>
+        <v>150</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>100</v>
+      </c>
+      <c r="R12" s="25">
+        <v>150</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>30</v>
+      </c>
+      <c r="U12" s="25">
+        <f t="shared" ref="U12:U13" si="1">SUM(Q12:T12)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>100</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>250</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="25">
+        <v>120</v>
+      </c>
+      <c r="M14" s="25">
+        <v>130</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="Q14" s="25">
+        <f>SUM(Q11:Q13)</f>
+        <v>350</v>
+      </c>
+      <c r="R14" s="25">
+        <f t="shared" ref="R14:T14" si="2">SUM(R11:R13)</f>
+        <v>150</v>
+      </c>
+      <c r="S14" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="T14" s="25">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U14" s="26">
+        <f>SUMPRODUCT(R3:U5,Q11:T13)</f>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2">
+        <v>16</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <v>50</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>24</v>
+      </c>
+      <c r="L16" s="25">
+        <f>SUM(L11:L15)</f>
+        <v>220</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" ref="M16:N16" si="3">SUM(M11:M15)</f>
+        <v>280</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="O16" s="26">
+        <f>SUMPRODUCT(M3:O7,L11:N15)</f>
+        <v>2100</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="26">
+        <f>O16+U14</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2">
+        <f>SUM(I21:I27)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f>SUM(B21:G21)</f>
+        <v>200</v>
+      </c>
+      <c r="I21" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22:H27" si="4">SUM(B22:G22)</f>
+        <v>150</v>
+      </c>
+      <c r="I22" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="I24" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>200</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I25" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2">
+        <v>150</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="I26" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>250</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="I27" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f>SUM(B21:B27)</f>
+        <v>220</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:G28" si="5">SUM(C21:C27)</f>
+        <v>280</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f>SUM(B29:G29)</f>
+        <v>1450</v>
+      </c>
+      <c r="B29" s="2">
+        <v>220</v>
+      </c>
+      <c r="C29" s="2">
+        <v>280</v>
+      </c>
+      <c r="D29" s="2">
+        <v>250</v>
+      </c>
+      <c r="E29" s="2">
+        <v>350</v>
+      </c>
+      <c r="F29" s="2">
+        <v>150</v>
+      </c>
+      <c r="G29" s="2">
+        <v>200</v>
+      </c>
+      <c r="I29" s="26">
+        <f>SUMPRODUCT(B11:G17,B21:G27)</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="L18:U19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A31:I32"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MatProg/Lab3/Lab3.xlsx
+++ b/MatProg/Lab3/Lab3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FB9864-C08E-4F94-A84E-6774C94F7C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D57B8D-13EC-4DFE-871E-B3AC0B29117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="3240" windowWidth="21600" windowHeight="9540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Решение без ограничений" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>Условие</t>
   </si>
@@ -774,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,14 +816,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,16 +832,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1333,7 +1326,19 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -1597,7 +1602,19 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -6544,7 +6561,19 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -6803,7 +6832,19 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -9014,6 +9055,1370 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914901" cy="495072"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12233F23-6E7E-E5A4-224B-8A8A6A608589}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7305675" y="4414837"/>
+              <a:ext cx="2914901" cy="495072"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=</m:t>
+                            </m:r>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑐𝑖𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥𝑖𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:nary>
+                              <m:naryPr>
+                                <m:chr m:val="∑"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:naryPr>
+                              <m:sub>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:brk m:alnAt="23"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>=</m:t>
+                                </m:r>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:brk m:alnAt="23"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>3</m:t>
+                                </m:r>
+                              </m:sup>
+                              <m:e>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:chr m:val="∑"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:brk m:alnAt="23"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑗</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>=</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:brk m:alnAt="23"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>3</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑐𝑘𝑗</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>∗</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥𝑘𝑗</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t> →</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑚𝑖𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:nary>
+                              </m:e>
+                            </m:nary>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12233F23-6E7E-E5A4-224B-8A8A6A608589}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7305675" y="4414837"/>
+              <a:ext cx="2914901" cy="495072"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑧= ∑24_(𝑖=1)^4▒∑24_(𝑘=1)^3▒〖𝑐𝑖𝑘∗𝑥𝑖𝑘+ ∑24_(𝑘=1)^3▒∑24_(𝑗=1)^3▒〖𝑐𝑘𝑗∗𝑥𝑘𝑗 →𝑚𝑖𝑛〗〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1324850" cy="475964"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09892A27-88B3-09F5-F081-4A18F95ECA7E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7077075" y="4986337"/>
+              <a:ext cx="1324850" cy="475964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑖𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>≤</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>, </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09892A27-88B3-09F5-F081-4A18F95ECA7E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7077075" y="4986337"/>
+              <a:ext cx="1324850" cy="475964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑24_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑖𝑘≤𝑎𝑖, 𝑖= (1, 4) ̅  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1380763" cy="475195"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B977AF-73B0-47D5-A40B-2102C68DA11E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7086600" y="5548312"/>
+              <a:ext cx="1380763" cy="475195"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑖𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>≤</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>, </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B977AF-73B0-47D5-A40B-2102C68DA11E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7086600" y="5548312"/>
+              <a:ext cx="1380763" cy="475195"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑24_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑖𝑘≤𝑑𝑘, 𝑘= (1, 3) ̅  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1334596" cy="475964"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9FD66A-156C-4234-8479-1741434DAAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7105650" y="6129337"/>
+              <a:ext cx="1334596" cy="475964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑘𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>≥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>, </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9FD66A-156C-4234-8479-1741434DAAF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7105650" y="6129337"/>
+              <a:ext cx="1334596" cy="475964"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑24_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑘𝑗≥𝑏𝑗, 𝑗= (1, 3) ̅  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1016368" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156931DA-01A3-CDE5-DC46-36CBD6A97E99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8972550" y="5148262"/>
+              <a:ext cx="1016368" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥𝑖𝑘</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥𝑘𝑗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156931DA-01A3-CDE5-DC46-36CBD6A97E99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8972550" y="5148262"/>
+              <a:ext cx="1016368" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑖𝑘≥0, 𝑥𝑘𝑗≥0</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9279,7 +10684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
@@ -9290,18 +10695,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9319,9 +10724,9 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
@@ -9344,9 +10749,9 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -9367,9 +10772,9 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
@@ -9392,9 +10797,9 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -9415,17 +10820,17 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="21" t="s">
         <v>5</v>
       </c>
@@ -9433,29 +10838,29 @@
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -9478,17 +10883,17 @@
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -9509,17 +10914,17 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -9537,17 +10942,17 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -9565,22 +10970,22 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -9598,20 +11003,20 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -9629,230 +11034,230 @@
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -9870,17 +11275,17 @@
       <c r="E30" s="2">
         <v>2000</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -9905,17 +11310,17 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -9939,17 +11344,17 @@
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
@@ -9971,21 +11376,21 @@
         <v>0</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
+      <c r="J33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
@@ -10004,17 +11409,17 @@
         <v>-4</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
@@ -10035,17 +11440,17 @@
       <c r="F35" s="18">
         <v>1</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
     </row>
     <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
@@ -10064,17 +11469,17 @@
         <v>-4</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
@@ -10151,7 +11556,7 @@
       <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -10175,10 +11580,10 @@
       <c r="I41" s="2">
         <v>500</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="17"/>
+      <c r="K41" s="22"/>
       <c r="L41">
         <f>D31*D32+B33*B34+C33*C34+B35*B36+D35*D36+D37*D38+E37*E38</f>
         <v>20500</v>
@@ -10394,7 +11799,7 @@
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="19"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
@@ -10418,10 +11823,10 @@
       <c r="I54" s="2">
         <v>500</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="17"/>
+      <c r="K54" s="22"/>
       <c r="L54">
         <f>D44*D45+C46*C47+B46*B47+B48*B49+E48*E49+D50*D51+E50*E51</f>
         <v>18500</v>
@@ -10638,7 +12043,7 @@
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="19"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
@@ -10662,10 +12067,10 @@
       <c r="I67" s="2">
         <v>500</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="17"/>
+      <c r="K67" s="22"/>
       <c r="L67">
         <f>D57*D58+C59*C60+B59*B60+B61*B62+E61*E62+C63*C64+D63*D64</f>
         <v>16500</v>
@@ -10880,7 +12285,7 @@
       <c r="E79" s="3">
         <v>1000</v>
       </c>
-      <c r="F79" s="19"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
@@ -10898,10 +12303,10 @@
       <c r="F80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="17"/>
+      <c r="I80" s="22"/>
       <c r="J80">
         <f>D70*D71+D72*D73+B72*B73+B74*B75+E74*E75+C76*C77+D76*D77</f>
         <v>16000</v>
@@ -10909,27 +12314,28 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="M13:W28"/>
-    <mergeCell ref="M30:W36"/>
-    <mergeCell ref="A22:K28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="J7:L9"/>
     <mergeCell ref="J2:L3"/>
@@ -10946,28 +12352,27 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="M13:W28"/>
+    <mergeCell ref="M30:W36"/>
+    <mergeCell ref="A22:K28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10985,18 +12390,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11014,9 +12419,9 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
@@ -11039,9 +12444,9 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -11062,9 +12467,9 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
@@ -11087,9 +12492,9 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -11110,17 +12515,17 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="21" t="s">
         <v>5</v>
       </c>
@@ -11128,17 +12533,17 @@
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -11203,11 +12608,11 @@
         <v>500</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -11575,7 +12980,7 @@
         <f>F32-(F$34+$G32)</f>
         <v>2</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -11602,10 +13007,10 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="2">
         <f>D24*D25+C26*C27+B26*B27+B28*B29+D28*D29+F28*F29+D30*D31</f>
         <v>11500</v>
@@ -11854,7 +13259,7 @@
         <f>F45-(F$47+$G45)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="19"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
@@ -11881,10 +13286,10 @@
       <c r="J47" s="2">
         <v>1000</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="K47" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="17"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="2">
         <f>D37*D38+C39*C40+D39*D40+B41*B42+D41*D42+F41*F42+D43*D44</f>
         <v>11500</v>
@@ -12135,7 +13540,7 @@
         <f>F58-(F$60+$G58)</f>
         <v>2</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
@@ -12156,10 +13561,10 @@
       <c r="G60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="I60" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="17"/>
+      <c r="J60" s="22"/>
       <c r="K60" s="2">
         <f>D50*D51+D52*D53+B54*B55+D54*D55+F54*F55+C56*C57+D56*D57</f>
         <v>10500</v>
@@ -12334,10 +13739,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="17"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="18">
         <f>D65*D66+D67*D68+B69*B70+D69*D70+C71*C72+E71*E72</f>
         <v>19500</v>
@@ -12352,41 +13757,19 @@
         <v>1000</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="J4:L6"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A62:E63"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="G58:G59"/>
@@ -12403,13 +13786,35 @@
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="J4:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12427,13 +13832,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12538,20 +13943,20 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -12686,13 +14091,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12815,13 +14220,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -12946,10 +14351,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF048BF-D913-43C4-9BC0-F50BDDE95D42}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12958,13 +14363,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
@@ -12973,13 +14378,13 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="18" t="s">
         <v>49</v>
       </c>
@@ -12989,17 +14394,15 @@
       <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="23"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>46</v>
@@ -13012,17 +14415,15 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="23"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
         <v>46</v>
@@ -13038,7 +14439,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="2">
@@ -13069,7 +14470,7 @@
         <v>220</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M3" s="2">
@@ -13104,7 +14505,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2">
@@ -13135,7 +14536,7 @@
         <v>280</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="2">
@@ -13170,7 +14571,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2">
@@ -13201,7 +14602,7 @@
         <v>250</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="2">
@@ -13236,7 +14637,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2">
@@ -13263,7 +14664,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M6" s="2">
@@ -13309,7 +14710,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M7" s="2">
@@ -13337,15 +14738,15 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -13366,20 +14767,20 @@
       <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -13403,32 +14804,32 @@
       <c r="G11" s="2">
         <v>1000</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="25">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>197</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="2">
         <f>SUM(L11:N11)</f>
         <v>200</v>
       </c>
-      <c r="Q11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="S11" s="25">
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>200</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="2">
         <v>20</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="2">
         <f>SUM(Q11:T11)</f>
         <v>220</v>
       </c>
@@ -13455,32 +14856,32 @@
       <c r="G12" s="2">
         <v>1000</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="2">
         <v>97</v>
       </c>
-      <c r="M12" s="25">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
         <v>53</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="2">
         <f t="shared" ref="O12:O15" si="0">SUM(L12:N12)</f>
         <v>150</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="2">
         <v>100</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="2">
         <v>150</v>
       </c>
-      <c r="S12" s="25">
-        <v>0</v>
-      </c>
-      <c r="T12" s="25">
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
         <v>30</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="2">
         <f t="shared" ref="U12:U13" si="1">SUM(Q12:T12)</f>
         <v>280</v>
       </c>
@@ -13507,32 +14908,32 @@
       <c r="G13" s="2">
         <v>1000</v>
       </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>100</v>
       </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="2">
         <v>250</v>
       </c>
-      <c r="R13" s="25">
-        <v>0</v>
-      </c>
-      <c r="S13" s="25">
-        <v>0</v>
-      </c>
-      <c r="T13" s="25">
-        <v>0</v>
-      </c>
-      <c r="U13" s="25">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
@@ -13559,36 +14960,36 @@
       <c r="G14" s="2">
         <v>1000</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="2">
         <v>120</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="2">
         <v>130</v>
       </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="2">
         <f>SUM(Q11:Q13)</f>
         <v>350</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="2">
         <f t="shared" ref="R14:T14" si="2">SUM(R11:R13)</f>
         <v>150</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="U14" s="26">
+      <c r="U14" s="17">
         <f>SUMPRODUCT(R3:U5,Q11:T13)</f>
         <v>8700</v>
       </c>
@@ -13615,16 +15016,16 @@
       <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="25">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>50</v>
       </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -13651,26 +15052,26 @@
       <c r="G16" s="2">
         <v>24</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="2">
         <f>SUM(L11:L15)</f>
         <v>220</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="2">
         <f t="shared" ref="M16:N16" si="3">SUM(M11:M15)</f>
         <v>280</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="17">
         <f>SUMPRODUCT(M3:O7,L11:N15)</f>
         <v>2100</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="17">
         <f>O16+U14</f>
         <v>10800</v>
       </c>
@@ -13713,15 +15114,15 @@
       <c r="U18" s="18"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -13816,6 +15217,14 @@
       <c r="I22" s="2">
         <v>150</v>
       </c>
+      <c r="L22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -13846,6 +15255,12 @@
       <c r="I23" s="2">
         <v>100</v>
       </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -13876,6 +15291,12 @@
       <c r="I24" s="2">
         <v>250</v>
       </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -13906,6 +15327,12 @@
       <c r="I25" s="2">
         <v>220</v>
       </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -13936,6 +15363,12 @@
       <c r="I26" s="2">
         <v>280</v>
       </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -13966,6 +15399,12 @@
       <c r="I27" s="2">
         <v>250</v>
       </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -13992,6 +15431,12 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -14016,10 +15461,21 @@
       <c r="G29" s="2">
         <v>200</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="17">
         <f>SUMPRODUCT(B11:G17,B21:G27)</f>
         <v>10800</v>
       </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -14033,9 +15489,9 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -14053,9 +15509,9 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -14063,20 +15519,42 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="L33:N35"/>
+    <mergeCell ref="O27:Q29"/>
+    <mergeCell ref="L22:Q23"/>
+    <mergeCell ref="L24:Q26"/>
+    <mergeCell ref="L27:N29"/>
+    <mergeCell ref="L30:N32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A31:I32"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="Q10:U10"/>
     <mergeCell ref="L18:U19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A31:I32"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MatProg/Lab3/Lab3.xlsx
+++ b/MatProg/Lab3/Lab3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D57B8D-13EC-4DFE-871E-B3AC0B29117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2C416-B240-4421-A031-F6E092787C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3240" windowWidth="21600" windowHeight="9540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Решение без ограничений" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Двухэтапная тр. задача" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$T$13</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$S$13</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
@@ -37,16 +37,16 @@
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$T$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$S$13</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$T$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$11:$S$13</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$10:$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$10:$D$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$14:$T$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$R$6:$T$6</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$15:$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$U$11:$U$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$U$3:$U$5</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Программное решение(!огр)'!$E$10:$E$14</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Программное решение(огр)'!$A$15:$D$15</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Программное решение(огр)'!$D$13</definedName>
@@ -73,10 +73,10 @@
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$U$14</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$T$14</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Программное решение(!огр)'!$E$15</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Программное решение(огр)'!$E$15</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.00000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
@@ -101,10 +101,10 @@
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$R$6:$U$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$Q$14:$S$14</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Программное решение(!огр)'!$B$2:$E$2</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">500</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$V$3:$V$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Двухэтапная тр. задача'!$T$11:$T$13</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Программное решение(!огр)'!$A$3:$A$7</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Программное решение(огр)'!$B$2:$E$2</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">1000</definedName>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>Условие</t>
   </si>
@@ -575,9 +575,6 @@
     <t>А5</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>Решение(от баз к поставщикам)</t>
   </si>
   <si>
@@ -820,10 +817,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,10 +832,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1326,19 +1323,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1,4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -1602,19 +1587,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1,4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -6561,19 +6534,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1,4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -6832,19 +6793,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1,4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -9065,8 +9014,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2914901" cy="495072"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -9108,6 +9057,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9372,7 +9322,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -9436,8 +9386,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1324850" cy="475964"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -9479,6 +9429,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9579,19 +9530,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>, </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>1, 4</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -9611,7 +9550,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -9711,8 +9650,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1380763" cy="475195"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -9754,6 +9693,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9854,19 +9794,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>, </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>3</m:t>
+                              <m:t>1, 3</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -9886,7 +9814,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -9986,8 +9914,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1334596" cy="475964"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -10029,6 +9957,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10129,19 +10058,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>, </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>3</m:t>
+                              <m:t>1, 3</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -10161,7 +10078,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -10261,8 +10178,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1016368" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -10304,6 +10221,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10320,19 +10238,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>≥</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>, </m:t>
+                      <m:t>≥0, </m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -10344,13 +10250,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>≥</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0</m:t>
+                      <m:t>≥0</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -10360,7 +10260,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -10695,18 +10595,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10724,14 +10624,14 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -10749,12 +10649,12 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -10772,14 +10672,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -10797,12 +10697,12 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -10820,47 +10720,47 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="21" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -10878,22 +10778,22 @@
       <c r="E13" s="2">
         <v>2000</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -10911,20 +10811,20 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -10942,17 +10842,17 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -10970,22 +10870,22 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -11003,20 +10903,20 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -11034,230 +10934,230 @@
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -11275,20 +11175,20 @@
       <c r="E30" s="2">
         <v>2000</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="21">
         <v>500</v>
       </c>
       <c r="B31" s="2">
@@ -11303,27 +11203,27 @@
       <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>0</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="4">
         <f>B31-(B$41+$F31)</f>
         <v>4</v>
@@ -11339,25 +11239,25 @@
         <f>E31-(E$41+$F31)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="19"/>
       <c r="H32" s="6"/>
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="19">
         <v>1000</v>
       </c>
       <c r="B33" s="2">
@@ -11372,28 +11272,28 @@
       <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>0</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
+      <c r="J33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -11408,21 +11308,21 @@
         <f>E33-(E$41+$F33)</f>
         <v>-4</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>1500</v>
       </c>
       <c r="B35" s="2">
@@ -11437,23 +11337,23 @@
       <c r="E35" s="8">
         <v>4</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>1</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
     </row>
     <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="3">
         <v>1000</v>
       </c>
@@ -11468,21 +11368,21 @@
         <f>E35-(E$41+$F35)</f>
         <v>-4</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>2000</v>
       </c>
       <c r="B37" s="2">
@@ -11497,12 +11397,12 @@
       <c r="E37" s="2">
         <v>9</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4">
         <f>B37-(B$41+$F37)</f>
         <v>3</v>
@@ -11517,10 +11417,10 @@
       <c r="E38" s="3">
         <v>1000</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>1000</v>
       </c>
       <c r="B39" s="2">
@@ -11535,12 +11435,12 @@
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>-7</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="4">
         <f>B39-(B$41+$F39)</f>
         <v>6</v>
@@ -11556,7 +11456,7 @@
       <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -11580,10 +11480,10 @@
       <c r="I41" s="2">
         <v>500</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="18"/>
       <c r="L41">
         <f>D31*D32+B33*B34+C33*C34+B35*B36+D35*D36+D37*D38+E37*E38</f>
         <v>20500</v>
@@ -11607,7 +11507,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="21">
         <v>500</v>
       </c>
       <c r="B44" s="2">
@@ -11622,12 +11522,12 @@
       <c r="E44" s="2">
         <v>8</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="4">
         <f>B44-(B$54+$F44)</f>
         <v>0</v>
@@ -11643,10 +11543,10 @@
         <f>E44-(E$54+$F44)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>1000</v>
       </c>
       <c r="B46" s="2">
@@ -11661,12 +11561,12 @@
       <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>-4</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="3">
         <v>0</v>
       </c>
@@ -11681,10 +11581,10 @@
         <f>E46-(E$54+$F46)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="19">
         <v>1500</v>
       </c>
       <c r="B48" s="2">
@@ -11699,12 +11599,12 @@
       <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>-3</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="3">
         <v>1000</v>
       </c>
@@ -11720,10 +11620,10 @@
         <f>0+$I$41</f>
         <v>500</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="19">
         <v>2000</v>
       </c>
       <c r="B50" s="2">
@@ -11738,12 +11638,12 @@
       <c r="E50" s="2">
         <v>9</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="4">
         <f>B50-(B$54+$F50)</f>
         <v>-1</v>
@@ -11760,10 +11660,10 @@
         <f>E38-$I$41</f>
         <v>500</v>
       </c>
-      <c r="F51" s="18"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>1000</v>
       </c>
       <c r="B52" s="2">
@@ -11778,12 +11678,12 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>-7</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="4">
         <f>B52-(B$54+$F52)</f>
         <v>2</v>
@@ -11799,7 +11699,7 @@
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
@@ -11823,10 +11723,10 @@
       <c r="I54" s="2">
         <v>500</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="22"/>
+      <c r="K54" s="18"/>
       <c r="L54">
         <f>D44*D45+C46*C47+B46*B47+B48*B49+E48*E49+D50*D51+E50*E51</f>
         <v>18500</v>
@@ -11850,7 +11750,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+      <c r="A57" s="21">
         <v>500</v>
       </c>
       <c r="B57" s="2">
@@ -11865,12 +11765,12 @@
       <c r="E57" s="2">
         <v>8</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="4">
         <f>B57-(B$67+$F57)</f>
         <v>4</v>
@@ -11886,10 +11786,10 @@
         <f>E57-(E$67+$F57)</f>
         <v>5</v>
       </c>
-      <c r="F58" s="18"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
+      <c r="A59" s="19">
         <v>1000</v>
       </c>
       <c r="B59" s="2">
@@ -11904,12 +11804,12 @@
       <c r="E59" s="2">
         <v>3</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="3">
         <f>B47+$I$54</f>
         <v>500</v>
@@ -11926,10 +11826,10 @@
         <f>E59-(E$67+$F59)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="18"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
+      <c r="A61" s="19">
         <v>1500</v>
       </c>
       <c r="B61" s="2">
@@ -11944,12 +11844,12 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="3">
         <f>B49-$I$54</f>
         <v>500</v>
@@ -11966,10 +11866,10 @@
         <f>E49+$I$54</f>
         <v>1000</v>
       </c>
-      <c r="F62" s="18"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
+      <c r="A63" s="19">
         <v>2000</v>
       </c>
       <c r="B63" s="2">
@@ -11984,12 +11884,12 @@
       <c r="E63" s="2">
         <v>9</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="4">
         <f>B63-(B$67+$F63)</f>
         <v>3</v>
@@ -12004,10 +11904,10 @@
         <f>E63-(E$67+$F63)</f>
         <v>4</v>
       </c>
-      <c r="F64" s="18"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
+      <c r="A65" s="19">
         <v>1000</v>
       </c>
       <c r="B65" s="2">
@@ -12022,12 +11922,12 @@
       <c r="E65" s="2">
         <v>0</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>-3</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="4">
         <f>B65-(B$67+$F65)</f>
         <v>2</v>
@@ -12043,7 +11943,7 @@
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
@@ -12067,10 +11967,10 @@
       <c r="I67" s="2">
         <v>500</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="22"/>
+      <c r="K67" s="18"/>
       <c r="L67">
         <f>D57*D58+C59*C60+B59*B60+B61*B62+E61*E62+C63*C64+D63*D64</f>
         <v>16500</v>
@@ -12094,7 +11994,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+      <c r="A70" s="21">
         <v>500</v>
       </c>
       <c r="B70" s="2">
@@ -12109,12 +12009,12 @@
       <c r="E70" s="2">
         <v>8</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="4">
         <f>B70-(B$80+$F70)</f>
         <v>3</v>
@@ -12130,10 +12030,10 @@
         <f>E70-(E$80+$F70)</f>
         <v>4</v>
       </c>
-      <c r="F71" s="18"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
+      <c r="A72" s="19">
         <v>1000</v>
       </c>
       <c r="B72" s="2">
@@ -12148,12 +12048,12 @@
       <c r="E72" s="2">
         <v>3</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="3">
         <v>500</v>
       </c>
@@ -12168,10 +12068,10 @@
         <f>E72-(E$80+$F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="18"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
+      <c r="A74" s="19">
         <v>1500</v>
       </c>
       <c r="B74" s="2">
@@ -12186,12 +12086,12 @@
       <c r="E74" s="2">
         <v>4</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="3">
         <v>500</v>
       </c>
@@ -12206,10 +12106,10 @@
       <c r="E75" s="3">
         <v>1000</v>
       </c>
-      <c r="F75" s="18"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
+      <c r="A76" s="19">
         <v>2000</v>
       </c>
       <c r="B76" s="2">
@@ -12224,12 +12124,12 @@
       <c r="E76" s="2">
         <v>9</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="4">
         <f>B76-(B$80+$F76)</f>
         <v>2</v>
@@ -12246,10 +12146,10 @@
         <f>E76-(E$80+$F76)</f>
         <v>3</v>
       </c>
-      <c r="F77" s="18"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
+      <c r="A78" s="19">
         <v>1000</v>
       </c>
       <c r="B78" s="2">
@@ -12264,12 +12164,12 @@
       <c r="E78" s="2">
         <v>0</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>-4</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="4">
         <f>B78-(B$80+$F78)</f>
         <v>2</v>
@@ -12285,7 +12185,7 @@
       <c r="E79" s="3">
         <v>1000</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
@@ -12303,10 +12203,10 @@
       <c r="F80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H80" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="22"/>
+      <c r="I80" s="18"/>
       <c r="J80">
         <f>D70*D71+D72*D73+B72*B73+B74*B75+E74*E75+C76*C77+D76*D77</f>
         <v>16000</v>
@@ -12314,6 +12214,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="M13:W28"/>
+    <mergeCell ref="M30:W36"/>
+    <mergeCell ref="A22:K28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="G16:I19"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="J54:K54"/>
@@ -12330,49 +12273,6 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="J4:L6"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G16:I19"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="M13:W28"/>
-    <mergeCell ref="M30:W36"/>
-    <mergeCell ref="A22:K28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12390,18 +12290,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12419,14 +12319,14 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -12444,12 +12344,12 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -12467,14 +12367,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -12492,12 +12392,12 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -12515,38 +12415,38 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="21" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G10" s="2" t="s">
@@ -12571,22 +12471,22 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -12608,11 +12508,11 @@
         <v>500</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -12655,12 +12555,12 @@
         <v>28</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -12682,10 +12582,10 @@
         <v>29</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -12707,10 +12607,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -12732,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -12758,7 +12658,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="21">
         <v>500</v>
       </c>
       <c r="B24" s="2">
@@ -12776,12 +12676,12 @@
       <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4">
         <f>B24-(B$34+$G24)</f>
         <v>4</v>
@@ -12801,10 +12701,10 @@
         <f>F24-(F$34+$G24)</f>
         <v>4</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>1000</v>
       </c>
       <c r="B26" s="2">
@@ -12822,12 +12722,12 @@
       <c r="F26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -12845,10 +12745,10 @@
       <c r="F27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>1500</v>
       </c>
       <c r="B28" s="2">
@@ -12866,12 +12766,12 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="3">
         <v>500</v>
       </c>
@@ -12889,10 +12789,10 @@
       <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="19">
         <v>1000</v>
       </c>
       <c r="B30" s="2">
@@ -12910,12 +12810,12 @@
       <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4">
         <f>B30-(B$34+$G30)</f>
         <v>3</v>
@@ -12935,10 +12835,10 @@
         <f>F30-(F$34+$G30)</f>
         <v>3</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="19">
         <v>1000</v>
       </c>
       <c r="B32" s="2">
@@ -12956,12 +12856,12 @@
       <c r="F32" s="15">
         <v>0</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="4">
         <f>B32-(B$34+$G32)</f>
         <v>2</v>
@@ -12980,7 +12880,7 @@
         <f>F32-(F$34+$G32)</f>
         <v>2</v>
       </c>
-      <c r="G33" s="23"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -13007,10 +12907,10 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="22"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="2">
         <f>D24*D25+C26*C27+B26*B27+B28*B29+D28*D29+F28*F29+D30*D31</f>
         <v>11500</v>
@@ -13037,7 +12937,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="21">
         <v>500</v>
       </c>
       <c r="B37" s="2">
@@ -13055,12 +12955,12 @@
       <c r="F37" s="2">
         <v>5</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4">
         <f>B37-(B$47+$G37)</f>
         <v>4</v>
@@ -13080,10 +12980,10 @@
         <f>F37-(F$47+$G37)</f>
         <v>4</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>1000</v>
       </c>
       <c r="B39" s="2">
@@ -13101,12 +13001,12 @@
       <c r="F39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="4">
         <f>B39-(B$47+$G39)</f>
         <v>1</v>
@@ -13124,10 +13024,10 @@
       <c r="F40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
+      <c r="A41" s="19">
         <v>1500</v>
       </c>
       <c r="B41" s="2">
@@ -13145,12 +13045,12 @@
       <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="3">
         <v>500</v>
       </c>
@@ -13168,10 +13068,10 @@
       <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>1000</v>
       </c>
       <c r="B43" s="2">
@@ -13189,12 +13089,12 @@
       <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="4">
         <f>B43-(B$47+$G43)</f>
         <v>3</v>
@@ -13214,10 +13114,10 @@
         <f>F43-(F$47+$G43)</f>
         <v>3</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>1000</v>
       </c>
       <c r="B45" s="2">
@@ -13235,12 +13135,12 @@
       <c r="F45" s="15">
         <v>0</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>-3</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="4">
         <f>B45-(B$47+$G45)</f>
         <v>2</v>
@@ -13259,7 +13159,7 @@
         <f>F45-(F$47+$G45)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="23"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
@@ -13286,10 +13186,10 @@
       <c r="J47" s="2">
         <v>1000</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="22"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="2">
         <f>D37*D38+C39*C40+D39*D40+B41*B42+D41*D42+F41*F42+D43*D44</f>
         <v>11500</v>
@@ -13316,7 +13216,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="21">
         <v>500</v>
       </c>
       <c r="B50" s="2">
@@ -13334,12 +13234,12 @@
       <c r="F50" s="2">
         <v>5</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="4">
         <f>B50-(B$60+$G50)</f>
         <v>4</v>
@@ -13359,10 +13259,10 @@
         <f>F50-(F$60+$G50)</f>
         <v>4</v>
       </c>
-      <c r="G51" s="18"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>1000</v>
       </c>
       <c r="B52" s="2">
@@ -13380,12 +13280,12 @@
       <c r="F52" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="4">
         <f>B52-(B$60+$G52)</f>
         <v>1</v>
@@ -13405,10 +13305,10 @@
       <c r="F53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="18"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="19">
         <v>1500</v>
       </c>
       <c r="B54" s="2">
@@ -13426,12 +13326,12 @@
       <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="3">
         <v>500</v>
       </c>
@@ -13449,10 +13349,10 @@
       <c r="F55" s="3">
         <v>500</v>
       </c>
-      <c r="G55" s="18"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="A56" s="19">
         <v>1000</v>
       </c>
       <c r="B56" s="2">
@@ -13470,12 +13370,12 @@
       <c r="F56" s="2">
         <v>6</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="4">
         <f>B56-(B$60+$G56)</f>
         <v>3</v>
@@ -13495,10 +13395,10 @@
         <f>F56-(F$60+$G56)</f>
         <v>3</v>
       </c>
-      <c r="G57" s="18"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="19">
         <v>1000</v>
       </c>
       <c r="B58" s="2">
@@ -13516,12 +13416,12 @@
       <c r="F58" s="15">
         <v>0</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>-3</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="4">
         <f>B58-(B$60+$G58)</f>
         <v>2</v>
@@ -13540,7 +13440,7 @@
         <f>F58-(F$60+$G58)</f>
         <v>2</v>
       </c>
-      <c r="G59" s="23"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
@@ -13561,31 +13461,31 @@
       <c r="G60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="22"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="2">
         <f>D50*D51+D52*D53+B54*B55+D54*D55+F54*F55+C56*C57+D56*D57</f>
         <v>10500</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -13607,7 +13507,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="21">
         <v>500</v>
       </c>
       <c r="B65" s="2">
@@ -13625,7 +13525,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3">
@@ -13635,7 +13535,7 @@
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
+      <c r="A67" s="19">
         <v>1000</v>
       </c>
       <c r="B67" s="2">
@@ -13653,7 +13553,7 @@
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3">
@@ -13663,7 +13563,7 @@
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
+      <c r="A69" s="19">
         <v>1500</v>
       </c>
       <c r="B69" s="2">
@@ -13681,7 +13581,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="3">
         <v>1000</v>
       </c>
@@ -13693,7 +13593,7 @@
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
+      <c r="A71" s="19">
         <v>2000</v>
       </c>
       <c r="B71" s="2">
@@ -13711,7 +13611,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3">
         <v>1000</v>
@@ -13723,7 +13623,7 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
+      <c r="A73" s="19">
         <v>1000</v>
       </c>
       <c r="B73" s="2">
@@ -13739,17 +13639,17 @@
         <v>0</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="22" t="s">
+      <c r="G73" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="22"/>
-      <c r="I73" s="18">
+      <c r="H73" s="18"/>
+      <c r="I73" s="19">
         <f>D65*D66+D67*D68+B69*B70+D69*D70+C71*C72+E71*E72</f>
         <v>19500</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
@@ -13757,19 +13657,41 @@
         <v>1000</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="A62:E63"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="G58:G59"/>
@@ -13786,35 +13708,13 @@
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13832,13 +13732,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13943,20 +13843,20 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -14091,13 +13991,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14220,13 +14120,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -14351,10 +14251,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF048BF-D913-43C4-9BC0-F50BDDE95D42}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X20" sqref="W20:X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14362,38 +14262,38 @@
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="18" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
@@ -14434,11 +14334,9 @@
       <c r="T2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -14498,13 +14396,10 @@
         <v>16</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -14564,13 +14459,10 @@
         <v>24</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -14630,13 +14522,10 @@
         <v>18</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -14689,11 +14578,9 @@
       <c r="T6" s="2">
         <v>200</v>
       </c>
-      <c r="U6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>220</v>
       </c>
@@ -14726,7 +14613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M8" s="2">
         <v>220</v>
       </c>
@@ -14737,18 +14624,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -14767,22 +14654,22 @@
       <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -14805,13 +14692,13 @@
         <v>1000</v>
       </c>
       <c r="L11" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2">
         <f>SUM(L11:N11)</f>
@@ -14827,14 +14714,11 @@
         <v>200</v>
       </c>
       <c r="T11" s="2">
-        <v>20</v>
-      </c>
-      <c r="U11" s="2">
-        <f>SUM(Q11:T11)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(Q11:S11)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -14857,13 +14741,13 @@
         <v>1000</v>
       </c>
       <c r="L12" s="2">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" ref="O12:O15" si="0">SUM(L12:N12)</f>
@@ -14879,14 +14763,11 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>30</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" ref="U12:U13" si="1">SUM(Q12:T12)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(Q12:S12)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -14931,14 +14812,11 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(Q13:S13)</f>
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -14961,10 +14839,10 @@
         <v>1000</v>
       </c>
       <c r="L14" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -14978,23 +14856,19 @@
         <v>350</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R14:T14" si="2">SUM(R11:R13)</f>
+        <f t="shared" ref="R14:T14" si="1">SUM(R11:R13)</f>
         <v>150</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="T14" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="U14" s="17">
-        <f>SUMPRODUCT(R3:U5,Q11:T13)</f>
+      <c r="T14" s="17">
+        <f>SUMPRODUCT(R3:T5,Q11:S13)</f>
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -15017,10 +14891,10 @@
         <v>16</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -15030,7 +14904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -15057,11 +14931,11 @@
         <v>220</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" ref="M16:N16" si="3">SUM(M11:M15)</f>
+        <f t="shared" ref="M16:N16" si="2">SUM(M11:M15)</f>
         <v>280</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="O16" s="17">
@@ -15069,10 +14943,10 @@
         <v>2100</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R16" s="17">
-        <f>O16+U14</f>
+        <f>O16+T14</f>
         <v>10800</v>
       </c>
     </row>
@@ -15100,39 +14974,39 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -15211,20 +15085,20 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ref="H22:H27" si="4">SUM(B22:G22)</f>
+        <f t="shared" ref="H22:H27" si="3">SUM(B22:G22)</f>
         <v>150</v>
       </c>
       <c r="I22" s="2">
         <v>150</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -15249,18 +15123,18 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -15285,18 +15159,18 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="I24" s="2">
         <v>250</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -15321,18 +15195,18 @@
         <v>200</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="I25" s="2">
         <v>220</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -15357,18 +15231,18 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I26" s="2">
         <v>280</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -15393,18 +15267,18 @@
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="I27" s="2">
         <v>250</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -15412,31 +15286,31 @@
         <v>220</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:G28" si="5">SUM(C21:C27)</f>
+        <f t="shared" ref="C28:G28" si="4">SUM(C21:C27)</f>
         <v>280</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -15465,33 +15339,33 @@
         <f>SUMPRODUCT(B11:G17,B21:G27)</f>
         <v>10800</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -15500,18 +15374,18 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -15520,38 +15394,38 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
     </row>
     <row r="34" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="L18:U19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A31:I32"/>
     <mergeCell ref="L33:N35"/>
     <mergeCell ref="O27:Q29"/>
     <mergeCell ref="L22:Q23"/>
     <mergeCell ref="L24:Q26"/>
     <mergeCell ref="L27:N29"/>
     <mergeCell ref="L30:N32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A31:I32"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="L18:U19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MatProg/Lab3/Lab3.xlsx
+++ b/MatProg/Lab3/Lab3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2C416-B240-4421-A031-F6E092787C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53097D22-DDAD-4A7A-91A2-2A547CCE55F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Решение без ограничений" sheetId="1" r:id="rId1"/>
@@ -817,13 +817,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,7 +829,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,8 +917,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1695450" cy="585788"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1019,7 +1019,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>4</m:t>
+                          <m:t>5</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
@@ -1115,7 +1115,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1157,11 +1157,12 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑧= ∑24_(𝑖=1)^4▒〖 ∑24_(𝑗=1)^4▒〖𝑐𝑖𝑗∗𝑥𝑖𝑗→𝑚𝑖𝑛〗〗</a:t>
+                <a:t>𝑧= ∑_(𝑖=1)^5▒〖 ∑_(𝑗=1)^4▒〖𝑐𝑖𝑗∗𝑥𝑖𝑗→𝑚𝑖𝑛〗〗</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -1179,8 +1180,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="510011"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1323,7 +1324,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1,5</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -1343,7 +1344,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1385,11 +1386,24 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∑24_(</a:t>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1401,31 +1415,13 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>)^</a:t>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥𝑖𝑗=𝑎𝑖, 𝑖= (1,4) ̅  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〗</a:t>
+                <a:t>^4▒〖𝑥𝑖𝑗=𝑎𝑖, 𝑖= (1,5) ̅  〗</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -1443,8 +1439,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="474297"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1533,7 +1529,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>4</m:t>
+                          <m:t>5</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
@@ -1607,7 +1603,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1649,11 +1645,24 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∑24_(</a:t>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1665,31 +1674,13 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>)^</a:t>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥𝑖𝑗=𝑏𝑗,𝑗= (1,4) ̅  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〗</a:t>
+                <a:t>^5▒〖𝑥𝑖𝑗=𝑏𝑗,𝑗= (1,4) ̅  〗</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -6127,8 +6118,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1695450" cy="585788"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6229,7 +6220,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>4</m:t>
+                          <m:t>5</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
@@ -6279,7 +6270,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>4</m:t>
+                              <m:t>5</m:t>
                             </m:r>
                           </m:sup>
                           <m:e>
@@ -6325,7 +6316,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6372,7 +6363,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑧= ∑_(𝑖=1)^4▒〖 ∑_(𝑗=1)^4▒〖𝑐𝑖𝑗∗𝑥𝑖𝑗→𝑚𝑖𝑛〗〗</a:t>
+                <a:t>𝑧= ∑_(𝑖=1)^5▒〖 ∑_(𝑗=1)^5▒〖𝑐𝑖𝑗∗𝑥𝑖𝑗→𝑚𝑖𝑛〗〗</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -6390,8 +6381,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="510011"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -6480,7 +6471,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>4</m:t>
+                          <m:t>5</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
@@ -6534,7 +6525,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1,5</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -6554,7 +6545,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -6631,7 +6622,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>^4▒〖𝑥𝑖𝑗=𝑎𝑖, 𝑖= (1,4) ̅  〗</a:t>
+                <a:t>^5▒〖𝑥𝑖𝑗=𝑎𝑖, 𝑖= (1,5) ̅  〗</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -6649,8 +6640,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409701" cy="474297"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6739,7 +6730,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>4</m:t>
+                          <m:t>5</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
@@ -6793,7 +6784,7 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>1,4</m:t>
+                              <m:t>1,5</m:t>
                             </m:r>
                           </m:e>
                         </m:acc>
@@ -6813,7 +6804,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6890,7 +6881,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>^4▒〖𝑥𝑖𝑗=𝑏𝑗,𝑗= (1,4) ̅  〗</a:t>
+                <a:t>^5▒〖𝑥𝑖𝑗=𝑏𝑗,𝑗= (1,5) ̅  〗</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -10584,31 +10575,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10624,16 +10615,16 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>500</v>
       </c>
@@ -10649,14 +10640,14 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -10672,16 +10663,16 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="19" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1500</v>
       </c>
@@ -10697,14 +10688,14 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -10720,49 +10711,49 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -10778,24 +10769,24 @@
       <c r="E13" s="2">
         <v>2000</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>500</v>
       </c>
@@ -10811,22 +10802,22 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1000</v>
       </c>
@@ -10842,19 +10833,19 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1500</v>
       </c>
@@ -10870,24 +10861,24 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
@@ -10903,22 +10894,22 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1000</v>
       </c>
@@ -10934,232 +10925,232 @@
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-    </row>
-    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+    </row>
+    <row r="30" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -11175,20 +11166,20 @@
       <c r="E30" s="2">
         <v>2000</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>500</v>
       </c>
       <c r="B31" s="2">
@@ -11203,27 +11194,27 @@
       <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>0</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
       <c r="B32" s="4">
         <f>B31-(B$41+$F31)</f>
         <v>4</v>
@@ -11239,25 +11230,25 @@
         <f>E31-(E$41+$F31)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="18"/>
       <c r="H32" s="6"/>
       <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>1000</v>
       </c>
       <c r="B33" s="2">
@@ -11272,28 +11263,28 @@
       <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>0</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -11308,21 +11299,21 @@
         <f>E33-(E$41+$F33)</f>
         <v>-4</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="F34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
         <v>1500</v>
       </c>
       <c r="B35" s="2">
@@ -11337,23 +11328,23 @@
       <c r="E35" s="8">
         <v>4</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>1</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-    </row>
-    <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+    </row>
+    <row r="36" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
       <c r="B36" s="3">
         <v>1000</v>
       </c>
@@ -11368,21 +11359,21 @@
         <f>E35-(E$41+$F35)</f>
         <v>-4</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="F36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
         <v>2000</v>
       </c>
       <c r="B37" s="2">
@@ -11397,12 +11388,12 @@
       <c r="E37" s="2">
         <v>9</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
       <c r="B38" s="4">
         <f>B37-(B$41+$F37)</f>
         <v>3</v>
@@ -11417,10 +11408,10 @@
       <c r="E38" s="3">
         <v>1000</v>
       </c>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
         <v>1000</v>
       </c>
       <c r="B39" s="2">
@@ -11435,12 +11426,12 @@
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <v>-7</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
       <c r="B40" s="4">
         <f>B39-(B$41+$F39)</f>
         <v>6</v>
@@ -11456,9 +11447,9 @@
       <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>1</v>
       </c>
@@ -11480,16 +11471,16 @@
       <c r="I41" s="2">
         <v>500</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="18"/>
+      <c r="K41" s="22"/>
       <c r="L41">
         <f>D31*D32+B33*B34+C33*C34+B35*B36+D35*D36+D37*D38+E37*E38</f>
         <v>20500</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -11506,8 +11497,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
         <v>500</v>
       </c>
       <c r="B44" s="2">
@@ -11522,12 +11513,12 @@
       <c r="E44" s="2">
         <v>8</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
       <c r="B45" s="4">
         <f>B44-(B$54+$F44)</f>
         <v>0</v>
@@ -11543,10 +11534,10 @@
         <f>E44-(E$54+$F44)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
         <v>1000</v>
       </c>
       <c r="B46" s="2">
@@ -11561,12 +11552,12 @@
       <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <v>-4</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
       <c r="B47" s="3">
         <v>0</v>
       </c>
@@ -11581,10 +11572,10 @@
         <f>E46-(E$54+$F46)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
         <v>1500</v>
       </c>
       <c r="B48" s="2">
@@ -11599,12 +11590,12 @@
       <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="18">
         <v>-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
       <c r="B49" s="3">
         <v>1000</v>
       </c>
@@ -11620,10 +11611,10 @@
         <f>0+$I$41</f>
         <v>500</v>
       </c>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
         <v>2000</v>
       </c>
       <c r="B50" s="2">
@@ -11638,12 +11629,12 @@
       <c r="E50" s="2">
         <v>9</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
       <c r="B51" s="4">
         <f>B50-(B$54+$F50)</f>
         <v>-1</v>
@@ -11660,10 +11651,10 @@
         <f>E38-$I$41</f>
         <v>500</v>
       </c>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
         <v>1000</v>
       </c>
       <c r="B52" s="2">
@@ -11678,12 +11669,12 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="18">
         <v>-7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
       <c r="B53" s="4">
         <f>B52-(B$54+$F52)</f>
         <v>2</v>
@@ -11699,9 +11690,9 @@
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>5</v>
       </c>
@@ -11723,16 +11714,16 @@
       <c r="I54" s="2">
         <v>500</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="18"/>
+      <c r="K54" s="22"/>
       <c r="L54">
         <f>D44*D45+C46*C47+B46*B47+B48*B49+E48*E49+D50*D51+E50*E51</f>
         <v>18500</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -11749,8 +11740,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="20">
         <v>500</v>
       </c>
       <c r="B57" s="2">
@@ -11765,12 +11756,12 @@
       <c r="E57" s="2">
         <v>8</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
       <c r="B58" s="4">
         <f>B57-(B$67+$F57)</f>
         <v>4</v>
@@ -11786,10 +11777,10 @@
         <f>E57-(E$67+$F57)</f>
         <v>5</v>
       </c>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
         <v>1000</v>
       </c>
       <c r="B59" s="2">
@@ -11804,12 +11795,12 @@
       <c r="E59" s="2">
         <v>3</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
       <c r="B60" s="3">
         <f>B47+$I$54</f>
         <v>500</v>
@@ -11826,10 +11817,10 @@
         <f>E59-(E$67+$F59)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
         <v>1500</v>
       </c>
       <c r="B61" s="2">
@@ -11844,12 +11835,12 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
       <c r="B62" s="3">
         <f>B49-$I$54</f>
         <v>500</v>
@@ -11866,10 +11857,10 @@
         <f>E49+$I$54</f>
         <v>1000</v>
       </c>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
         <v>2000</v>
       </c>
       <c r="B63" s="2">
@@ -11884,12 +11875,12 @@
       <c r="E63" s="2">
         <v>9</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
       <c r="B64" s="4">
         <f>B63-(B$67+$F63)</f>
         <v>3</v>
@@ -11904,10 +11895,10 @@
         <f>E63-(E$67+$F63)</f>
         <v>4</v>
       </c>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
         <v>1000</v>
       </c>
       <c r="B65" s="2">
@@ -11922,12 +11913,12 @@
       <c r="E65" s="2">
         <v>0</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="18">
         <v>-3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
       <c r="B66" s="4">
         <f>B65-(B$67+$F65)</f>
         <v>2</v>
@@ -11943,9 +11934,9 @@
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>1</v>
       </c>
@@ -11967,16 +11958,16 @@
       <c r="I67" s="2">
         <v>500</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J67" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="18"/>
+      <c r="K67" s="22"/>
       <c r="L67">
         <f>D57*D58+C59*C60+B59*B60+B61*B62+E61*E62+C63*C64+D63*D64</f>
         <v>16500</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -11993,8 +11984,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="20">
         <v>500</v>
       </c>
       <c r="B70" s="2">
@@ -12009,12 +12000,12 @@
       <c r="E70" s="2">
         <v>8</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
       <c r="B71" s="4">
         <f>B70-(B$80+$F70)</f>
         <v>3</v>
@@ -12030,10 +12021,10 @@
         <f>E70-(E$80+$F70)</f>
         <v>4</v>
       </c>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
         <v>1000</v>
       </c>
       <c r="B72" s="2">
@@ -12048,12 +12039,12 @@
       <c r="E72" s="2">
         <v>3</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="18">
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
       <c r="B73" s="3">
         <v>500</v>
       </c>
@@ -12068,10 +12059,10 @@
         <f>E72-(E$80+$F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
         <v>1500</v>
       </c>
       <c r="B74" s="2">
@@ -12086,12 +12077,12 @@
       <c r="E74" s="2">
         <v>4</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
       <c r="B75" s="3">
         <v>500</v>
       </c>
@@ -12106,10 +12097,10 @@
       <c r="E75" s="3">
         <v>1000</v>
       </c>
-      <c r="F75" s="19"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
         <v>2000</v>
       </c>
       <c r="B76" s="2">
@@ -12124,12 +12115,12 @@
       <c r="E76" s="2">
         <v>9</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
       <c r="B77" s="4">
         <f>B76-(B$80+$F76)</f>
         <v>2</v>
@@ -12146,10 +12137,10 @@
         <f>E76-(E$80+$F76)</f>
         <v>3</v>
       </c>
-      <c r="F77" s="19"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
         <v>1000</v>
       </c>
       <c r="B78" s="2">
@@ -12164,12 +12155,12 @@
       <c r="E78" s="2">
         <v>0</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="18">
         <v>-4</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="18"/>
       <c r="B79" s="4">
         <f>B78-(B$80+$F78)</f>
         <v>2</v>
@@ -12185,9 +12176,9 @@
       <c r="E79" s="3">
         <v>1000</v>
       </c>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>2</v>
       </c>
@@ -12203,10 +12194,10 @@
       <c r="F80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="18"/>
+      <c r="I80" s="22"/>
       <c r="J80">
         <f>D70*D71+D72*D73+B72*B73+B74*B75+E74*E75+C76*C77+D76*D77</f>
         <v>16000</v>
@@ -12214,27 +12205,28 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="M13:W28"/>
-    <mergeCell ref="M30:W36"/>
-    <mergeCell ref="A22:K28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="J7:L9"/>
     <mergeCell ref="J2:L3"/>
@@ -12251,28 +12243,27 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="M13:W28"/>
+    <mergeCell ref="M30:W36"/>
+    <mergeCell ref="A22:K28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12283,27 +12274,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522AC293-CFC7-431F-9BA5-B624D71F0A90}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12319,16 +12310,16 @@
       <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>500</v>
       </c>
@@ -12344,14 +12335,14 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -12367,16 +12358,16 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="19" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1500</v>
       </c>
@@ -12392,14 +12383,14 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -12415,40 +12406,40 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
@@ -12459,7 +12450,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
@@ -12470,25 +12461,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -12508,13 +12499,13 @@
         <v>500</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>500</v>
       </c>
@@ -12535,7 +12526,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1000</v>
       </c>
@@ -12555,14 +12546,14 @@
         <v>28</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1500</v>
       </c>
@@ -12582,12 +12573,12 @@
         <v>29</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1000</v>
       </c>
@@ -12607,12 +12598,12 @@
         <v>6</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1000</v>
       </c>
@@ -12632,12 +12623,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -12657,8 +12648,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>500</v>
       </c>
       <c r="B24" s="2">
@@ -12676,12 +12667,12 @@
       <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
       <c r="B25" s="4">
         <f>B24-(B$34+$G24)</f>
         <v>4</v>
@@ -12701,10 +12692,10 @@
         <f>F24-(F$34+$G24)</f>
         <v>4</v>
       </c>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>1000</v>
       </c>
       <c r="B26" s="2">
@@ -12722,12 +12713,12 @@
       <c r="F26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -12745,10 +12736,10 @@
       <c r="F27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>1500</v>
       </c>
       <c r="B28" s="2">
@@ -12766,12 +12757,12 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
       <c r="B29" s="3">
         <v>500</v>
       </c>
@@ -12789,10 +12780,10 @@
       <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>1000</v>
       </c>
       <c r="B30" s="2">
@@ -12810,12 +12801,12 @@
       <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
       <c r="B31" s="4">
         <f>B30-(B$34+$G30)</f>
         <v>3</v>
@@ -12835,10 +12826,10 @@
         <f>F30-(F$34+$G30)</f>
         <v>3</v>
       </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
         <v>1000</v>
       </c>
       <c r="B32" s="2">
@@ -12856,12 +12847,12 @@
       <c r="F32" s="15">
         <v>0</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
       <c r="B33" s="4">
         <f>B32-(B$34+$G32)</f>
         <v>2</v>
@@ -12880,9 +12871,9 @@
         <f>F32-(F$34+$G32)</f>
         <v>2</v>
       </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -12907,16 +12898,16 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="2">
         <f>D24*D25+C26*C27+B26*B27+B28*B29+D28*D29+F28*F29+D30*D31</f>
         <v>11500</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -12936,8 +12927,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
         <v>500</v>
       </c>
       <c r="B37" s="2">
@@ -12955,12 +12946,12 @@
       <c r="F37" s="2">
         <v>5</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
       <c r="B38" s="4">
         <f>B37-(B$47+$G37)</f>
         <v>4</v>
@@ -12980,10 +12971,10 @@
         <f>F37-(F$47+$G37)</f>
         <v>4</v>
       </c>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
         <v>1000</v>
       </c>
       <c r="B39" s="2">
@@ -13001,12 +12992,12 @@
       <c r="F39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="18">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
       <c r="B40" s="4">
         <f>B39-(B$47+$G39)</f>
         <v>1</v>
@@ -13024,10 +13015,10 @@
       <c r="F40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
         <v>1500</v>
       </c>
       <c r="B41" s="2">
@@ -13045,12 +13036,12 @@
       <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
       <c r="B42" s="3">
         <v>500</v>
       </c>
@@ -13068,10 +13059,10 @@
       <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
         <v>1000</v>
       </c>
       <c r="B43" s="2">
@@ -13089,12 +13080,12 @@
       <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
       <c r="B44" s="4">
         <f>B43-(B$47+$G43)</f>
         <v>3</v>
@@ -13114,10 +13105,10 @@
         <f>F43-(F$47+$G43)</f>
         <v>3</v>
       </c>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
         <v>1000</v>
       </c>
       <c r="B45" s="2">
@@ -13135,12 +13126,12 @@
       <c r="F45" s="15">
         <v>0</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="18">
         <v>-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
       <c r="B46" s="4">
         <f>B45-(B$47+$G45)</f>
         <v>2</v>
@@ -13159,9 +13150,9 @@
         <f>F45-(F$47+$G45)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>1</v>
       </c>
@@ -13186,16 +13177,16 @@
       <c r="J47" s="2">
         <v>1000</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="K47" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="18"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="2">
         <f>D37*D38+C39*C40+D39*D40+B41*B42+D41*D42+F41*F42+D43*D44</f>
         <v>11500</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -13215,8 +13206,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="20">
         <v>500</v>
       </c>
       <c r="B50" s="2">
@@ -13234,12 +13225,12 @@
       <c r="F50" s="2">
         <v>5</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
       <c r="B51" s="4">
         <f>B50-(B$60+$G50)</f>
         <v>4</v>
@@ -13259,10 +13250,10 @@
         <f>F50-(F$60+$G50)</f>
         <v>4</v>
       </c>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
         <v>1000</v>
       </c>
       <c r="B52" s="2">
@@ -13280,12 +13271,12 @@
       <c r="F52" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="18">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
       <c r="B53" s="4">
         <f>B52-(B$60+$G52)</f>
         <v>1</v>
@@ -13305,10 +13296,10 @@
       <c r="F53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
         <v>1500</v>
       </c>
       <c r="B54" s="2">
@@ -13326,12 +13317,12 @@
       <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
       <c r="B55" s="3">
         <v>500</v>
       </c>
@@ -13349,10 +13340,10 @@
       <c r="F55" s="3">
         <v>500</v>
       </c>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="18">
         <v>1000</v>
       </c>
       <c r="B56" s="2">
@@ -13370,12 +13361,12 @@
       <c r="F56" s="2">
         <v>6</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
       <c r="B57" s="4">
         <f>B56-(B$60+$G56)</f>
         <v>3</v>
@@ -13395,10 +13386,10 @@
         <f>F56-(F$60+$G56)</f>
         <v>3</v>
       </c>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
         <v>1000</v>
       </c>
       <c r="B58" s="2">
@@ -13416,12 +13407,12 @@
       <c r="F58" s="15">
         <v>0</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="18">
         <v>-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
       <c r="B59" s="4">
         <f>B58-(B$60+$G58)</f>
         <v>2</v>
@@ -13440,9 +13431,9 @@
         <f>F58-(F$60+$G58)</f>
         <v>2</v>
       </c>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>1</v>
       </c>
@@ -13461,34 +13452,34 @@
       <c r="G60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="18"/>
+      <c r="J60" s="22"/>
       <c r="K60" s="2">
         <f>D50*D51+D52*D53+B54*B55+D54*D55+F54*F55+C56*C57+D56*D57</f>
         <v>10500</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -13506,8 +13497,8 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="20">
         <v>500</v>
       </c>
       <c r="B65" s="2">
@@ -13524,8 +13515,8 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3">
@@ -13534,8 +13525,8 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
         <v>1000</v>
       </c>
       <c r="B67" s="2">
@@ -13552,8 +13543,8 @@
       </c>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3">
@@ -13562,8 +13553,8 @@
       <c r="E68" s="4"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="18">
         <v>1500</v>
       </c>
       <c r="B69" s="2">
@@ -13580,8 +13571,8 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
       <c r="B70" s="3">
         <v>1000</v>
       </c>
@@ -13592,8 +13583,8 @@
       <c r="E70" s="4"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="18">
         <v>2000</v>
       </c>
       <c r="B71" s="2">
@@ -13610,8 +13601,8 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3">
         <v>1000</v>
@@ -13622,8 +13613,8 @@
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
         <v>1000</v>
       </c>
       <c r="B73" s="2">
@@ -13639,17 +13630,17 @@
         <v>0</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="19">
+      <c r="H73" s="22"/>
+      <c r="I73" s="18">
         <f>D65*D66+D67*D68+B69*B70+D69*D70+C71*C72+E71*E72</f>
         <v>19500</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
@@ -13657,41 +13648,19 @@
         <v>1000</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="G4:I6"/>
-    <mergeCell ref="J4:L6"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A62:E63"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="G58:G59"/>
@@ -13708,13 +13677,35 @@
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="J4:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13726,21 +13717,21 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -13757,7 +13748,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>500</v>
       </c>
@@ -13774,7 +13765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -13791,7 +13782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1500</v>
       </c>
@@ -13808,7 +13799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -13825,7 +13816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1000</v>
       </c>
@@ -13842,23 +13833,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -13876,7 +13867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>30</v>
       </c>
@@ -13894,7 +13885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>970</v>
       </c>
@@ -13912,7 +13903,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -13930,7 +13921,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -13948,7 +13939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>SUM(A10:A14)</f>
         <v>1000</v>
@@ -13988,18 +13979,18 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14016,7 +14007,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>500</v>
       </c>
@@ -14042,7 +14033,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -14068,7 +14059,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1500</v>
       </c>
@@ -14085,7 +14076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -14102,7 +14093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1000</v>
       </c>
@@ -14119,16 +14110,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -14146,7 +14137,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -14164,7 +14155,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1000</v>
       </c>
@@ -14182,7 +14173,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -14200,7 +14191,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -14218,7 +14209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>SUM(A10:A14)</f>
         <v>1000</v>
@@ -14253,47 +14244,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF048BF-D913-43C4-9BC0-F50BDDE95D42}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="W20:X20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="19" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
@@ -14336,7 +14327,7 @@
       </c>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -14399,7 +14390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -14462,7 +14453,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -14525,7 +14516,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -14580,7 +14571,7 @@
       </c>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>220</v>
       </c>
@@ -14613,7 +14604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M8" s="2">
         <v>220</v>
       </c>
@@ -14624,18 +14615,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -14654,22 +14645,22 @@
       <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -14718,7 +14709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -14767,7 +14758,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -14816,7 +14807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -14856,7 +14847,7 @@
         <v>350</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R14:T14" si="1">SUM(R11:R13)</f>
+        <f t="shared" ref="R14:S14" si="1">SUM(R11:R13)</f>
         <v>150</v>
       </c>
       <c r="S14" s="2">
@@ -14868,7 +14859,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -14904,7 +14895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -14950,7 +14941,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -14973,42 +14964,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L18" s="19" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
@@ -15032,7 +15023,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -15062,7 +15053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -15091,16 +15082,16 @@
       <c r="I22" s="2">
         <v>150</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -15129,14 +15120,14 @@
       <c r="I23" s="2">
         <v>100</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -15165,14 +15156,14 @@
       <c r="I24" s="2">
         <v>250</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -15201,14 +15192,14 @@
       <c r="I25" s="2">
         <v>220</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -15237,14 +15228,14 @@
       <c r="I26" s="2">
         <v>280</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -15273,14 +15264,14 @@
       <c r="I27" s="2">
         <v>250</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f>SUM(B21:B27)</f>
         <v>220</v>
@@ -15305,14 +15296,14 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f>SUM(B29:G29)</f>
         <v>1450</v>
@@ -15339,33 +15330,33 @@
         <f>SUMPRODUCT(B11:G17,B21:G27)</f>
         <v>10800</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -15373,19 +15364,19 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -15393,39 +15384,39 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-    </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-    </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="L18:U19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A31:I32"/>
     <mergeCell ref="L33:N35"/>
     <mergeCell ref="O27:Q29"/>
     <mergeCell ref="L22:Q23"/>
     <mergeCell ref="L24:Q26"/>
     <mergeCell ref="L27:N29"/>
     <mergeCell ref="L30:N32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A31:I32"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="L18:U19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
